--- a/febrile_seizures.xlsx
+++ b/febrile_seizures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="318">
   <si>
     <t xml:space="preserve">Patient</t>
   </si>
@@ -760,10 +760,10 @@
     <t xml:space="preserve">weeks</t>
   </si>
   <si>
+    <t xml:space="preserve">months</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age at 1st FS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">months</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature</t>
@@ -826,7 +826,7 @@
     <t xml:space="preserve">TF</t>
   </si>
   <si>
-    <t xml:space="preserve">Range 0-1</t>
+    <t xml:space="preserve">%</t>
   </si>
   <si>
     <t xml:space="preserve">UIBC</t>
@@ -1079,12 +1079,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1384,7 +1383,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1506,10 +1505,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1752,11 +1747,11 @@
   </sheetPr>
   <dimension ref="A1:AD181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A182" activeCellId="0" sqref="A182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.86"/>
@@ -16657,13 +16652,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K30" activeCellId="0" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.66"/>
@@ -16877,1017 +16872,1070 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>54.5</v>
+        <v>19</v>
       </c>
       <c r="D7" s="27" t="n">
-        <v>52.0857142857143</v>
+        <v>23.9285714285714</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>29.9790955462679</v>
+        <v>14.5675054597866</v>
       </c>
       <c r="F7" s="27" t="n">
-        <v>62.5</v>
+        <v>17</v>
       </c>
       <c r="G7" s="27" t="n">
-        <v>62.0277777777778</v>
+        <v>21.5277777777778</v>
       </c>
       <c r="H7" s="27" t="n">
-        <v>26.2651165846708</v>
+        <v>14.902513903195</v>
       </c>
       <c r="I7" s="27" t="n">
-        <v>31.5</v>
+        <v>24</v>
       </c>
       <c r="J7" s="27" t="n">
-        <v>41.5588235294118</v>
+        <v>26.4705882352941</v>
       </c>
       <c r="K7" s="27" t="n">
-        <v>30.4224709379089</v>
+        <v>13.972343449174</v>
       </c>
       <c r="L7" s="27" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M7" s="27" t="n">
-        <v>43.1509433962264</v>
+        <v>30.2264150943396</v>
       </c>
       <c r="N7" s="27" t="n">
-        <v>24.5829805309526</v>
+        <v>19.9380208004648</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>48.625</v>
+        <v>30.4821428571429</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>21.9930257540472</v>
+        <v>16.7244959934154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="27" t="n">
-        <v>37.5</v>
+        <v>54.5</v>
       </c>
       <c r="D8" s="27" t="n">
-        <v>42.4142857142857</v>
+        <v>52.0857142857143</v>
       </c>
       <c r="E8" s="27" t="n">
-        <v>31.49073609218</v>
+        <v>29.9790955462679</v>
       </c>
       <c r="F8" s="27" t="n">
-        <v>51</v>
+        <v>62.5</v>
       </c>
       <c r="G8" s="27" t="n">
-        <v>50.75</v>
+        <v>62.0277777777778</v>
       </c>
       <c r="H8" s="27" t="n">
-        <v>31.8616428596249</v>
+        <v>26.2651165846708</v>
       </c>
       <c r="I8" s="27" t="n">
-        <v>22</v>
+        <v>31.5</v>
       </c>
       <c r="J8" s="27" t="n">
-        <v>33.5882352941176</v>
+        <v>41.5588235294118</v>
       </c>
       <c r="K8" s="27" t="n">
-        <v>28.9954203772259</v>
+        <v>30.4224709379089</v>
       </c>
       <c r="L8" s="27" t="n">
         <v>40</v>
       </c>
       <c r="M8" s="27" t="n">
-        <v>43.2264150943396</v>
+        <v>43.1509433962264</v>
       </c>
       <c r="N8" s="27" t="n">
-        <v>24.3623618198189</v>
+        <v>24.5829805309526</v>
       </c>
       <c r="O8" s="27" t="n">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="P8" s="27" t="n">
-        <v>49.3214285714286</v>
+        <v>48.625</v>
       </c>
       <c r="Q8" s="27" t="n">
-        <v>22.8871596735392</v>
+        <v>21.9930257540472</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="C9" s="27" t="n">
-        <v>16</v>
+        <v>37.5</v>
       </c>
       <c r="D9" s="27" t="n">
-        <v>20.0943396226415</v>
+        <v>42.4142857142857</v>
       </c>
       <c r="E9" s="27" t="n">
-        <v>13.5593625771208</v>
+        <v>31.49073609218</v>
       </c>
       <c r="F9" s="27" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G9" s="27" t="n">
-        <v>21.5277777777778</v>
+        <v>50.75</v>
       </c>
       <c r="H9" s="27" t="n">
-        <v>14.902513903195</v>
+        <v>31.8616428596249</v>
       </c>
       <c r="I9" s="27" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J9" s="27" t="n">
-        <v>17.0588235294118</v>
+        <v>33.5882352941176</v>
       </c>
       <c r="K9" s="27" t="n">
-        <v>9.86452348212582</v>
+        <v>28.9954203772259</v>
+      </c>
+      <c r="L9" s="27" t="n">
+        <v>40</v>
+      </c>
+      <c r="M9" s="27" t="n">
+        <v>43.2264150943396</v>
+      </c>
+      <c r="N9" s="27" t="n">
+        <v>24.3623618198189</v>
+      </c>
+      <c r="O9" s="27" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="P9" s="27" t="n">
+        <v>49.3214285714286</v>
+      </c>
+      <c r="Q9" s="27" t="n">
+        <v>22.8871596735392</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="27" t="n">
+        <v>20.0943396226415</v>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>13.5593625771208</v>
+      </c>
+      <c r="F10" s="27" t="n">
+        <v>17</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <v>21.5277777777778</v>
+      </c>
+      <c r="H10" s="27" t="n">
+        <v>14.902513903195</v>
+      </c>
+      <c r="I10" s="27" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" s="27" t="n">
+        <v>17.0588235294118</v>
+      </c>
+      <c r="K10" s="27" t="n">
+        <v>9.86452348212582</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C11" s="27" t="n">
         <v>38.6</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D11" s="27" t="n">
         <v>38.7188405797102</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E11" s="27" t="n">
         <v>0.613877589426149</v>
       </c>
-      <c r="F10" s="27" t="n">
+      <c r="F11" s="27" t="n">
         <v>38.55</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G11" s="27" t="n">
         <v>38.7916666666667</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H11" s="27" t="n">
         <v>0.621691241694781</v>
       </c>
-      <c r="I10" s="27" t="n">
+      <c r="I11" s="27" t="n">
         <v>38.6</v>
       </c>
-      <c r="J10" s="27" t="n">
+      <c r="J11" s="27" t="n">
         <v>38.6393939393939</v>
       </c>
-      <c r="K10" s="27" t="n">
+      <c r="K11" s="27" t="n">
         <v>0.604638008408437</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="25" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C12" s="28" t="n">
-        <v>4.565</v>
-      </c>
-      <c r="D12" s="28" t="n">
-        <v>4.61074074074074</v>
-      </c>
-      <c r="E12" s="28" t="n">
-        <v>0.578667473359242</v>
-      </c>
-      <c r="F12" s="28" t="n">
-        <v>4.525</v>
-      </c>
-      <c r="G12" s="28" t="n">
-        <v>4.50166666666667</v>
-      </c>
-      <c r="H12" s="28" t="n">
-        <v>0.373305696255954</v>
-      </c>
-      <c r="I12" s="28" t="n">
-        <v>4.615</v>
-      </c>
-      <c r="J12" s="28" t="n">
-        <v>4.82888888888889</v>
-      </c>
-      <c r="K12" s="28" t="n">
-        <v>0.825511526900595</v>
-      </c>
-      <c r="L12" s="28" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="M12" s="28" t="n">
-        <v>4.53075471698113</v>
-      </c>
-      <c r="N12" s="28" t="n">
-        <v>0.374216355851715</v>
-      </c>
-      <c r="O12" s="28" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="P12" s="28" t="n">
-        <v>4.60464285714286</v>
-      </c>
-      <c r="Q12" s="28" t="n">
-        <v>0.307304789689705</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="27" t="n">
-        <v>115.5</v>
-      </c>
-      <c r="D13" s="27" t="n">
-        <v>116.171428571429</v>
-      </c>
-      <c r="E13" s="27" t="n">
-        <v>9.96947722754188</v>
-      </c>
-      <c r="F13" s="27" t="n">
-        <v>114</v>
-      </c>
-      <c r="G13" s="27" t="n">
-        <v>113.777777777778</v>
-      </c>
-      <c r="H13" s="27" t="n">
-        <v>10.8235486948231</v>
-      </c>
-      <c r="I13" s="27" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="J13" s="27" t="n">
-        <v>118.705882352941</v>
-      </c>
-      <c r="K13" s="27" t="n">
-        <v>8.40825500494389</v>
-      </c>
-      <c r="L13" s="27" t="n">
-        <v>120</v>
-      </c>
-      <c r="M13" s="27" t="n">
-        <v>119.264150943396</v>
-      </c>
-      <c r="N13" s="27" t="n">
-        <v>10.297779714759</v>
-      </c>
-      <c r="O13" s="27" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="P13" s="27" t="n">
-        <v>121.303571428571</v>
-      </c>
-      <c r="Q13" s="27" t="n">
-        <v>8.29440039557278</v>
+        <v>240</v>
+      </c>
+      <c r="C13" s="28" t="n">
+        <v>4.565</v>
+      </c>
+      <c r="D13" s="28" t="n">
+        <v>4.61074074074074</v>
+      </c>
+      <c r="E13" s="28" t="n">
+        <v>0.578667473359242</v>
+      </c>
+      <c r="F13" s="28" t="n">
+        <v>4.525</v>
+      </c>
+      <c r="G13" s="28" t="n">
+        <v>4.50166666666667</v>
+      </c>
+      <c r="H13" s="28" t="n">
+        <v>0.373305696255954</v>
+      </c>
+      <c r="I13" s="28" t="n">
+        <v>4.615</v>
+      </c>
+      <c r="J13" s="28" t="n">
+        <v>4.82888888888889</v>
+      </c>
+      <c r="K13" s="28" t="n">
+        <v>0.825511526900595</v>
+      </c>
+      <c r="L13" s="28" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="M13" s="28" t="n">
+        <v>4.53075471698113</v>
+      </c>
+      <c r="N13" s="28" t="n">
+        <v>0.374216355851715</v>
+      </c>
+      <c r="O13" s="28" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="P13" s="28" t="n">
+        <v>4.60464285714286</v>
+      </c>
+      <c r="Q13" s="28" t="n">
+        <v>0.307304789689705</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D14" s="28" t="n">
-        <v>3.98518518518519</v>
-      </c>
-      <c r="E14" s="28" t="n">
-        <v>1.75890268187432</v>
-      </c>
-      <c r="F14" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="28" t="n">
-        <v>3.80833333333333</v>
-      </c>
-      <c r="H14" s="28" t="n">
-        <v>1.89862732369618</v>
-      </c>
-      <c r="I14" s="28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J14" s="28" t="n">
-        <v>4.33888888888889</v>
-      </c>
-      <c r="K14" s="28" t="n">
-        <v>1.42297901637577</v>
-      </c>
-      <c r="L14" s="28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="M14" s="28" t="n">
-        <v>9.07358490566038</v>
-      </c>
-      <c r="N14" s="28" t="n">
-        <v>5.68175727635915</v>
-      </c>
-      <c r="O14" s="28" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="P14" s="28" t="n">
-        <v>13.8392857142857</v>
-      </c>
-      <c r="Q14" s="28" t="n">
-        <v>7.18778455111495</v>
+        <v>241</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="27" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="D14" s="27" t="n">
+        <v>116.171428571429</v>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>9.96947722754188</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <v>114</v>
+      </c>
+      <c r="G14" s="27" t="n">
+        <v>113.777777777778</v>
+      </c>
+      <c r="H14" s="27" t="n">
+        <v>10.8235486948231</v>
+      </c>
+      <c r="I14" s="27" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="J14" s="27" t="n">
+        <v>118.705882352941</v>
+      </c>
+      <c r="K14" s="27" t="n">
+        <v>8.40825500494389</v>
+      </c>
+      <c r="L14" s="27" t="n">
+        <v>120</v>
+      </c>
+      <c r="M14" s="27" t="n">
+        <v>119.264150943396</v>
+      </c>
+      <c r="N14" s="27" t="n">
+        <v>10.297779714759</v>
+      </c>
+      <c r="O14" s="27" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="P14" s="27" t="n">
+        <v>121.303571428571</v>
+      </c>
+      <c r="Q14" s="27" t="n">
+        <v>8.29440039557278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="30" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="D15" s="30" t="n">
-        <v>52.15</v>
-      </c>
-      <c r="E15" s="30" t="n">
-        <v>43.8551937502039</v>
-      </c>
-      <c r="F15" s="30" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="G15" s="30" t="n">
-        <v>57.8055555555556</v>
-      </c>
-      <c r="H15" s="30" t="n">
-        <v>49.9657879779151</v>
-      </c>
-      <c r="I15" s="30" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="J15" s="30" t="n">
-        <v>40.8388888888889</v>
-      </c>
-      <c r="K15" s="30" t="n">
-        <v>25.5515888509982</v>
-      </c>
-      <c r="L15" s="30" t="n">
-        <v>38.6</v>
-      </c>
-      <c r="M15" s="30" t="n">
-        <v>57.7415094339623</v>
-      </c>
-      <c r="N15" s="30" t="n">
-        <v>47.5912218552728</v>
-      </c>
-      <c r="O15" s="30" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="P15" s="30" t="n">
-        <v>36.0910714285714</v>
-      </c>
-      <c r="Q15" s="30" t="n">
-        <v>36.9390174441641</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="28" t="n">
+        <v>3.98518518518519</v>
+      </c>
+      <c r="E15" s="28" t="n">
+        <v>1.75890268187432</v>
+      </c>
+      <c r="F15" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="28" t="n">
+        <v>3.80833333333333</v>
+      </c>
+      <c r="H15" s="28" t="n">
+        <v>1.89862732369618</v>
+      </c>
+      <c r="I15" s="28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" s="28" t="n">
+        <v>4.33888888888889</v>
+      </c>
+      <c r="K15" s="28" t="n">
+        <v>1.42297901637577</v>
+      </c>
+      <c r="L15" s="28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="M15" s="28" t="n">
+        <v>9.07358490566038</v>
+      </c>
+      <c r="N15" s="28" t="n">
+        <v>5.68175727635915</v>
+      </c>
+      <c r="O15" s="28" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="P15" s="28" t="n">
+        <v>13.8392857142857</v>
+      </c>
+      <c r="Q15" s="28" t="n">
+        <v>7.18778455111495</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="28" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D16" s="28" t="n">
-        <v>2.74981481481482</v>
-      </c>
-      <c r="E16" s="28" t="n">
-        <v>0.419701109914154</v>
-      </c>
-      <c r="F16" s="28" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G16" s="28" t="n">
-        <v>2.75833333333333</v>
-      </c>
-      <c r="H16" s="28" t="n">
-        <v>0.472896847707223</v>
-      </c>
-      <c r="I16" s="28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J16" s="28" t="n">
-        <v>2.73277777777778</v>
-      </c>
-      <c r="K16" s="28" t="n">
-        <v>0.297139411834512</v>
-      </c>
-      <c r="L16" s="28" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="M16" s="28" t="n">
-        <v>2.55716981132075</v>
-      </c>
-      <c r="N16" s="28" t="n">
-        <v>0.383352505778301</v>
-      </c>
-      <c r="O16" s="28" t="n">
-        <v>2.815</v>
-      </c>
-      <c r="P16" s="28" t="n">
-        <v>2.83392857142857</v>
-      </c>
-      <c r="Q16" s="28" t="n">
-        <v>0.465464298294738</v>
+        <v>245</v>
+      </c>
+      <c r="C16" s="30" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D16" s="30" t="n">
+        <v>52.15</v>
+      </c>
+      <c r="E16" s="30" t="n">
+        <v>43.8551937502039</v>
+      </c>
+      <c r="F16" s="30" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="G16" s="30" t="n">
+        <v>57.8055555555556</v>
+      </c>
+      <c r="H16" s="30" t="n">
+        <v>49.9657879779151</v>
+      </c>
+      <c r="I16" s="30" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="J16" s="30" t="n">
+        <v>40.8388888888889</v>
+      </c>
+      <c r="K16" s="30" t="n">
+        <v>25.5515888509982</v>
+      </c>
+      <c r="L16" s="30" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="M16" s="30" t="n">
+        <v>57.7415094339623</v>
+      </c>
+      <c r="N16" s="30" t="n">
+        <v>47.5912218552728</v>
+      </c>
+      <c r="O16" s="30" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="P16" s="30" t="n">
+        <v>36.0910714285714</v>
+      </c>
+      <c r="Q16" s="30" t="n">
+        <v>36.9390174441641</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C17" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D17" s="31" t="n">
-        <v>0.0577777777777778</v>
-      </c>
-      <c r="E17" s="31" t="n">
-        <v>0.025303192927515</v>
-      </c>
-      <c r="F17" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G17" s="31" t="n">
-        <v>0.0544444444444445</v>
-      </c>
-      <c r="H17" s="31" t="n">
-        <v>0.0262345948749732</v>
-      </c>
-      <c r="I17" s="31" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J17" s="31" t="n">
-        <v>0.0644444444444445</v>
-      </c>
-      <c r="K17" s="31" t="n">
-        <v>0.0225498721066472</v>
-      </c>
-      <c r="L17" s="31" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M17" s="31" t="n">
-        <v>0.141698113207547</v>
-      </c>
-      <c r="N17" s="31" t="n">
-        <v>0.083245139591464</v>
-      </c>
-      <c r="O17" s="31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P17" s="31" t="n">
-        <v>0.197678571428571</v>
-      </c>
-      <c r="Q17" s="31" t="n">
-        <v>0.0967281301836811</v>
+        <v>242</v>
+      </c>
+      <c r="C17" s="28" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="D17" s="28" t="n">
+        <v>2.74981481481482</v>
+      </c>
+      <c r="E17" s="28" t="n">
+        <v>0.419701109914154</v>
+      </c>
+      <c r="F17" s="28" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G17" s="28" t="n">
+        <v>2.75833333333333</v>
+      </c>
+      <c r="H17" s="28" t="n">
+        <v>0.472896847707223</v>
+      </c>
+      <c r="I17" s="28" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J17" s="28" t="n">
+        <v>2.73277777777778</v>
+      </c>
+      <c r="K17" s="28" t="n">
+        <v>0.297139411834512</v>
+      </c>
+      <c r="L17" s="28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M17" s="28" t="n">
+        <v>2.55716981132075</v>
+      </c>
+      <c r="N17" s="28" t="n">
+        <v>0.383352505778301</v>
+      </c>
+      <c r="O17" s="28" t="n">
+        <v>2.815</v>
+      </c>
+      <c r="P17" s="28" t="n">
+        <v>2.83392857142857</v>
+      </c>
+      <c r="Q17" s="28" t="n">
+        <v>0.465464298294738</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="30" t="n">
+        <v>5.77777777777778</v>
+      </c>
+      <c r="E18" s="30" t="n">
+        <v>2.5303192927515</v>
+      </c>
+      <c r="F18" s="30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="30" t="n">
+        <v>5.44444444444445</v>
+      </c>
+      <c r="H18" s="30" t="n">
+        <v>2.62345948749732</v>
+      </c>
+      <c r="I18" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" s="30" t="n">
+        <v>6.44444444444445</v>
+      </c>
+      <c r="K18" s="30" t="n">
+        <v>2.25498721066472</v>
+      </c>
+      <c r="L18" s="30" t="n">
+        <v>13</v>
+      </c>
+      <c r="M18" s="30" t="n">
+        <v>14.1698113207547</v>
+      </c>
+      <c r="N18" s="30" t="n">
+        <v>8.3245139591464</v>
+      </c>
+      <c r="O18" s="30" t="n">
+        <v>20</v>
+      </c>
+      <c r="P18" s="30" t="n">
+        <v>19.7678571428571</v>
+      </c>
+      <c r="Q18" s="30" t="n">
+        <v>9.67281301836811</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B19" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="C18" s="30" t="n">
+      <c r="C19" s="30" t="n">
         <v>63.7871794871795</v>
       </c>
-      <c r="D18" s="30" t="n">
+      <c r="D19" s="30" t="n">
         <v>66.0709186903631</v>
       </c>
-      <c r="E18" s="30" t="n">
+      <c r="E19" s="30" t="n">
         <v>11.8840877443425</v>
       </c>
-      <c r="F18" s="30" t="n">
+      <c r="F19" s="30" t="n">
         <v>65.3423076923077</v>
       </c>
-      <c r="G18" s="30" t="n">
+      <c r="G19" s="30" t="n">
         <v>66.9150721192388</v>
       </c>
-      <c r="H18" s="30" t="n">
+      <c r="H19" s="30" t="n">
         <v>12.5406234257048</v>
       </c>
-      <c r="I18" s="30" t="n">
+      <c r="I19" s="30" t="n">
         <v>60.9863636363636</v>
       </c>
-      <c r="J18" s="30" t="n">
+      <c r="J19" s="30" t="n">
         <v>64.3826118326118</v>
       </c>
-      <c r="K18" s="30" t="n">
+      <c r="K19" s="30" t="n">
         <v>10.5828890261602</v>
       </c>
-      <c r="L18" s="30" t="n">
+      <c r="L19" s="30" t="n">
         <v>53.7952380952381</v>
       </c>
-      <c r="M18" s="30" t="n">
+      <c r="M19" s="30" t="n">
         <v>54.0553602445349</v>
       </c>
-      <c r="N18" s="30" t="n">
+      <c r="N19" s="30" t="n">
         <v>10.3902551609324</v>
       </c>
-      <c r="O18" s="30" t="n">
+      <c r="O19" s="30" t="n">
         <v>56.594301994302</v>
       </c>
-      <c r="P18" s="30" t="n">
+      <c r="P19" s="30" t="n">
         <v>56.4620626536393</v>
       </c>
-      <c r="Q18" s="30" t="n">
+      <c r="Q19" s="30" t="n">
         <v>13.1036160921682</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B23" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>34</v>
-      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="28" t="n">
-        <v>0.662318629053545</v>
-      </c>
-      <c r="C24" s="28" t="n">
-        <v>0.585907837678986</v>
-      </c>
-      <c r="D24" s="28" t="n">
-        <v>0.217543131151291</v>
-      </c>
-      <c r="E24" s="28" t="n">
-        <v>0.364394508199692</v>
-      </c>
-      <c r="F24" s="33" t="n">
-        <v>0.0898114001575852</v>
+        <v>251</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" s="28" t="n">
-        <v>0.246462964720911</v>
+        <v>0.662318629053545</v>
       </c>
       <c r="C25" s="28" t="n">
-        <v>0.964490987730929</v>
-      </c>
-      <c r="D25" s="33" t="n">
-        <v>0.102087291694354</v>
-      </c>
-      <c r="E25" s="33" t="n">
-        <v>0.0955871704012615</v>
-      </c>
-      <c r="F25" s="34" t="n">
-        <v>0.0111181915527761</v>
+        <v>0.585907837678986</v>
+      </c>
+      <c r="D25" s="28" t="n">
+        <v>0.217543131151291</v>
+      </c>
+      <c r="E25" s="28" t="n">
+        <v>0.364394508199692</v>
+      </c>
+      <c r="F25" s="32" t="n">
+        <v>0.0898114001575852</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B26" s="28" t="n">
-        <v>0.227042466023406</v>
-      </c>
-      <c r="C26" s="33" t="n">
-        <v>0.0977976376026755</v>
-      </c>
-      <c r="D26" s="28" t="n">
-        <v>0.744141854892249</v>
-      </c>
-      <c r="E26" s="28" t="n">
-        <v>0.625879894839237</v>
-      </c>
-      <c r="F26" s="28" t="n">
-        <v>0.822298774143777</v>
+        <v>0.246462964720911</v>
+      </c>
+      <c r="C26" s="28" t="n">
+        <v>0.964490987730929</v>
+      </c>
+      <c r="D26" s="32" t="n">
+        <v>0.102087291694354</v>
+      </c>
+      <c r="E26" s="32" t="n">
+        <v>0.0955871704012615</v>
+      </c>
+      <c r="F26" s="33" t="n">
+        <v>0.0111181915527761</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="28" t="n">
-        <v>0.479615045484067</v>
-      </c>
-      <c r="C27" s="28" t="n">
-        <v>0.470982167854246</v>
+        <v>0.227042466023406</v>
+      </c>
+      <c r="C27" s="32" t="n">
+        <v>0.0977976376026755</v>
       </c>
       <c r="D27" s="28" t="n">
-        <v>0.70555461239459</v>
+        <v>0.744141854892249</v>
       </c>
       <c r="E27" s="28" t="n">
-        <v>0.502530653363869</v>
+        <v>0.625879894839237</v>
       </c>
       <c r="F27" s="28" t="n">
-        <v>0.691876491037797</v>
+        <v>0.822298774143777</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="B28" s="28" t="n">
-        <v>0.830647922550908</v>
+        <v>0.479615045484067</v>
       </c>
       <c r="C28" s="28" t="n">
-        <v>0.655937881783182</v>
+        <v>0.470982167854246</v>
       </c>
       <c r="D28" s="28" t="n">
-        <v>1</v>
+        <v>0.70555461239459</v>
       </c>
       <c r="E28" s="28" t="n">
-        <v>0.20723647176943</v>
+        <v>0.502530653363869</v>
       </c>
       <c r="F28" s="28" t="n">
-        <v>0.321435407388788</v>
+        <v>0.691876491037797</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="34" t="n">
-        <v>0.0440737692804929</v>
-      </c>
-      <c r="C29" s="33" t="n">
-        <v>0.113237232030141</v>
+        <v>241</v>
+      </c>
+      <c r="B29" s="28" t="n">
+        <v>0.830647922550908</v>
+      </c>
+      <c r="C29" s="28" t="n">
+        <v>0.655937881783182</v>
       </c>
       <c r="D29" s="28" t="n">
-        <v>0.215575380380205</v>
+        <v>1</v>
       </c>
       <c r="E29" s="28" t="n">
-        <v>0.142156862745098</v>
+        <v>0.20723647176943</v>
       </c>
       <c r="F29" s="28" t="n">
-        <v>0.622014061200345</v>
+        <v>0.321435407388788</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="28" t="n">
-        <v>0.875968685872527</v>
-      </c>
-      <c r="C30" s="28" t="n">
-        <v>0.612103958726581</v>
-      </c>
-      <c r="D30" s="34" t="n">
-        <v>0.00666762121183045</v>
+        <v>16</v>
+      </c>
+      <c r="B30" s="33" t="n">
+        <v>0.0440737692804929</v>
+      </c>
+      <c r="C30" s="32" t="n">
+        <v>0.113237232030141</v>
+      </c>
+      <c r="D30" s="28" t="n">
+        <v>0.215575380380205</v>
       </c>
       <c r="E30" s="28" t="n">
-        <v>0.832633053221288</v>
-      </c>
-      <c r="F30" s="34" t="n">
-        <v>0.0260158885542209</v>
+        <v>0.142156862745098</v>
+      </c>
+      <c r="F30" s="28" t="n">
+        <v>0.622014061200345</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B31" s="28" t="n">
-        <v>0.32413422409912</v>
+        <v>0.875968685872527</v>
       </c>
       <c r="C31" s="28" t="n">
-        <v>0.844776737415351</v>
-      </c>
-      <c r="D31" s="28" t="n">
-        <v>0.449791045354656</v>
+        <v>0.612103958726581</v>
+      </c>
+      <c r="D31" s="33" t="n">
+        <v>0.00666762121183045</v>
       </c>
       <c r="E31" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="28" t="n">
-        <v>0.538002795450072</v>
+        <v>0.832633053221288</v>
+      </c>
+      <c r="F31" s="33" t="n">
+        <v>0.0260158885542209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="34" t="n">
-        <v>0.0317430247365088</v>
-      </c>
-      <c r="C32" s="33" t="n">
-        <v>0.0576215914353535</v>
+        <v>246</v>
+      </c>
+      <c r="B32" s="28" t="n">
+        <v>0.32413422409912</v>
+      </c>
+      <c r="C32" s="28" t="n">
+        <v>0.844776737415351</v>
       </c>
       <c r="D32" s="28" t="n">
-        <v>0.29751886138984</v>
+        <v>0.449791045354656</v>
       </c>
       <c r="E32" s="28" t="n">
-        <v>0.120214752567694</v>
+        <v>1</v>
       </c>
       <c r="F32" s="28" t="n">
-        <v>0.861891636142067</v>
+        <v>0.538002795450072</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="33" t="n">
+        <v>0.0317430247365088</v>
+      </c>
+      <c r="C33" s="32" t="n">
+        <v>0.0576215914353535</v>
+      </c>
+      <c r="D33" s="28" t="n">
+        <v>0.29751886138984</v>
+      </c>
+      <c r="E33" s="28" t="n">
+        <v>0.120214752567694</v>
+      </c>
+      <c r="F33" s="28" t="n">
+        <v>0.861891636142067</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B33" s="28" t="n">
+      <c r="B34" s="28" t="n">
         <v>0.172674450805054</v>
       </c>
-      <c r="C33" s="28" t="n">
+      <c r="C34" s="28" t="n">
         <v>0.281721387155456</v>
       </c>
-      <c r="D33" s="28" t="n">
+      <c r="D34" s="28" t="n">
         <v>0.547697346916724</v>
       </c>
-      <c r="E33" s="28" t="n">
+      <c r="E34" s="28" t="n">
         <v>0.685107376283847</v>
       </c>
-      <c r="F33" s="28" t="n">
+      <c r="F34" s="28" t="n">
         <v>0.415232223996764</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>34</v>
-      </c>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="28" t="n">
-        <v>0.633048345405093</v>
-      </c>
-      <c r="C38" s="28" t="n">
-        <v>0.333121173517803</v>
-      </c>
-      <c r="D38" s="28" t="n">
-        <v>0.231139037870004</v>
-      </c>
-      <c r="E38" s="28" t="n">
-        <v>0.466883943466145</v>
-      </c>
-      <c r="F38" s="33" t="n">
-        <v>0.147469420580092</v>
+        <v>251</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39" s="28" t="n">
-        <v>0.194489213091504</v>
+        <v>0.633048345405093</v>
       </c>
       <c r="C39" s="28" t="n">
-        <v>0.979556273133799</v>
-      </c>
-      <c r="D39" s="33" t="n">
-        <v>0.116931859960726</v>
-      </c>
-      <c r="E39" s="33" t="n">
-        <v>0.10757305271595</v>
-      </c>
-      <c r="F39" s="34" t="n">
-        <v>0.018327621755626</v>
+        <v>0.333121173517803</v>
+      </c>
+      <c r="D39" s="28" t="n">
+        <v>0.231139037870004</v>
+      </c>
+      <c r="E39" s="28" t="n">
+        <v>0.466883943466145</v>
+      </c>
+      <c r="F39" s="32" t="n">
+        <v>0.147469420580092</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B40" s="28" t="n">
-        <v>0.259666922086504</v>
-      </c>
-      <c r="C40" s="33" t="n">
-        <v>0.103406086490344</v>
-      </c>
-      <c r="D40" s="28" t="n">
-        <v>0.815501017155333</v>
-      </c>
-      <c r="E40" s="28" t="n">
-        <v>0.799713773254213</v>
-      </c>
-      <c r="F40" s="28" t="n">
-        <v>0.80818389875388</v>
+        <v>0.194489213091504</v>
+      </c>
+      <c r="C40" s="28" t="n">
+        <v>0.979556273133799</v>
+      </c>
+      <c r="D40" s="32" t="n">
+        <v>0.116931859960726</v>
+      </c>
+      <c r="E40" s="32" t="n">
+        <v>0.10757305271595</v>
+      </c>
+      <c r="F40" s="33" t="n">
+        <v>0.018327621755626</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="28" t="n">
-        <v>0.442292788690643</v>
-      </c>
-      <c r="C41" s="28" t="n">
-        <v>0.563487064013287</v>
+        <v>0.259666922086504</v>
+      </c>
+      <c r="C41" s="32" t="n">
+        <v>0.103406086490344</v>
       </c>
       <c r="D41" s="28" t="n">
-        <v>0.686770493102932</v>
+        <v>0.815501017155333</v>
       </c>
       <c r="E41" s="28" t="n">
-        <v>0.856237198832464</v>
+        <v>0.799713773254213</v>
       </c>
       <c r="F41" s="28" t="n">
-        <v>0.987395278036022</v>
+        <v>0.80818389875388</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="B42" s="28" t="n">
-        <v>0.8261307950476</v>
+        <v>0.442292788690643</v>
       </c>
       <c r="C42" s="28" t="n">
-        <v>0.997228966193071</v>
+        <v>0.563487064013287</v>
       </c>
       <c r="D42" s="28" t="n">
-        <v>0.933385251929545</v>
+        <v>0.686770493102932</v>
       </c>
       <c r="E42" s="28" t="n">
-        <v>0.261809559458983</v>
+        <v>0.856237198832464</v>
       </c>
       <c r="F42" s="28" t="n">
-        <v>0.388399530543772</v>
+        <v>0.987395278036022</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="34" t="n">
-        <v>0.0210424942174948</v>
-      </c>
-      <c r="C43" s="33" t="n">
-        <v>0.0956596241075602</v>
+        <v>241</v>
+      </c>
+      <c r="B43" s="28" t="n">
+        <v>0.8261307950476</v>
+      </c>
+      <c r="C43" s="28" t="n">
+        <v>0.997228966193071</v>
       </c>
       <c r="D43" s="28" t="n">
-        <v>0.193174299924687</v>
+        <v>0.933385251929545</v>
       </c>
       <c r="E43" s="28" t="n">
-        <v>0.12280225549148</v>
+        <v>0.261809559458983</v>
       </c>
       <c r="F43" s="28" t="n">
-        <v>0.632140135256783</v>
+        <v>0.388399530543772</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="B44" s="28" t="n">
-        <v>0.838023238720399</v>
-      </c>
-      <c r="C44" s="28" t="n">
-        <v>0.252586407077703</v>
-      </c>
-      <c r="D44" s="33" t="n">
-        <v>0.183594671337115</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="33" t="n">
+        <v>0.0210424942174948</v>
+      </c>
+      <c r="C44" s="32" t="n">
+        <v>0.0956596241075602</v>
+      </c>
+      <c r="D44" s="28" t="n">
+        <v>0.193174299924687</v>
       </c>
       <c r="E44" s="28" t="n">
-        <v>0.974804906964674</v>
-      </c>
-      <c r="F44" s="33" t="n">
-        <v>0.193552983687097</v>
+        <v>0.12280225549148</v>
+      </c>
+      <c r="F44" s="28" t="n">
+        <v>0.632140135256783</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B45" s="28" t="n">
-        <v>0.78608181784338</v>
+        <v>0.838023238720399</v>
       </c>
       <c r="C45" s="28" t="n">
-        <v>0.968212995781143</v>
-      </c>
-      <c r="D45" s="28" t="n">
-        <v>0.353443598309954</v>
+        <v>0.252586407077703</v>
+      </c>
+      <c r="D45" s="32" t="n">
+        <v>0.183594671337115</v>
       </c>
       <c r="E45" s="28" t="n">
-        <v>0.524389852919792</v>
-      </c>
-      <c r="F45" s="28" t="n">
-        <v>0.260688781255981</v>
+        <v>0.974804906964674</v>
+      </c>
+      <c r="F45" s="32" t="n">
+        <v>0.193552983687097</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="34" t="n">
-        <v>0.0253499037366577</v>
-      </c>
-      <c r="C46" s="33" t="n">
-        <v>0.102188624808449</v>
+        <v>246</v>
+      </c>
+      <c r="B46" s="28" t="n">
+        <v>0.78608181784338</v>
+      </c>
+      <c r="C46" s="28" t="n">
+        <v>0.968212995781143</v>
       </c>
       <c r="D46" s="28" t="n">
-        <v>0.282968084791008</v>
+        <v>0.353443598309954</v>
       </c>
       <c r="E46" s="28" t="n">
-        <v>0.116058740742875</v>
+        <v>0.524389852919792</v>
       </c>
       <c r="F46" s="28" t="n">
-        <v>0.866797161129852</v>
+        <v>0.260688781255981</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="33" t="n">
+        <v>0.0253499037366577</v>
+      </c>
+      <c r="C47" s="32" t="n">
+        <v>0.102188624808449</v>
+      </c>
+      <c r="D47" s="28" t="n">
+        <v>0.282968084791008</v>
+      </c>
+      <c r="E47" s="28" t="n">
+        <v>0.116058740742875</v>
+      </c>
+      <c r="F47" s="28" t="n">
+        <v>0.866797161129852</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B47" s="28" t="n">
+      <c r="B48" s="28" t="n">
         <v>0.310881630360665</v>
       </c>
-      <c r="C47" s="28" t="n">
+      <c r="C48" s="28" t="n">
         <v>0.245513423050088</v>
       </c>
-      <c r="D47" s="28" t="n">
+      <c r="D48" s="28" t="n">
         <v>0.446101689453246</v>
       </c>
-      <c r="E47" s="28" t="n">
+      <c r="E48" s="28" t="n">
         <v>0.450882930230784</v>
       </c>
-      <c r="F47" s="28" t="n">
+      <c r="F48" s="28" t="n">
         <v>0.299384072911272</v>
       </c>
     </row>
@@ -17898,8 +17946,8 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -17928,3974 +17976,3974 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="27.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="45.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="35" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="35" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="35" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="35" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="35" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="35" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="35" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="37" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="35" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="35" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="35" width="19.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="35" width="21.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="35" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="35" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="35" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="28" style="37" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="40" style="35" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="35" width="12.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="46" style="35" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="35" width="18.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="35" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="35" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="35" width="14.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="53" style="35" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="27.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="45.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="34" width="31.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="34" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="34" width="24.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="34" width="34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="34" width="22.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="34" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="34" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="36" width="20.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="34" width="24.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="34" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="34" width="19.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="34" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="34" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="34" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="34" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="28" style="36" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="40" style="34" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="34" width="12.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="48" min="46" style="34" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="34" width="18.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="34" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="34" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="34" width="14.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="53" style="34" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" s="40" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-    </row>
-    <row r="2" s="40" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="42" t="s">
+    <row r="1" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+    </row>
+    <row r="2" s="39" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="41" t="s">
         <v>261</v>
       </c>
-      <c r="M2" s="46" t="s">
+      <c r="M2" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="47" t="s">
+      <c r="V2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="W2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="47" t="s">
+      <c r="X2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="49"/>
-    </row>
-    <row r="3" s="56" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50" t="s">
+      <c r="Y2" s="48"/>
+    </row>
+    <row r="3" s="55" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="51"/>
-      <c r="M3" s="53" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="55"/>
-    </row>
-    <row r="4" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="54"/>
+    </row>
+    <row r="4" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="35" t="n">
+      <c r="C4" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="57" t="s">
+      <c r="D4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="G4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="37" t="n">
+      <c r="G4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36" t="n">
         <v>37</v>
       </c>
-      <c r="I4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="35" t="s">
+      <c r="I4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N4" s="35" t="n">
+      <c r="N4" s="34" t="n">
         <v>4.41</v>
       </c>
-      <c r="O4" s="35" t="n">
+      <c r="O4" s="34" t="n">
         <v>119</v>
       </c>
-      <c r="P4" s="35" t="n">
+      <c r="P4" s="34" t="n">
         <v>79.1</v>
       </c>
-      <c r="Q4" s="35" t="n">
+      <c r="Q4" s="34" t="n">
         <v>0.35</v>
       </c>
-      <c r="R4" s="35" t="n">
+      <c r="R4" s="34" t="n">
         <v>26.7</v>
       </c>
-      <c r="S4" s="35" t="n">
+      <c r="S4" s="34" t="n">
         <v>13.7</v>
       </c>
-      <c r="T4" s="35" t="n">
+      <c r="T4" s="34" t="n">
         <v>2.7</v>
       </c>
-      <c r="U4" s="35" t="n">
+      <c r="U4" s="34" t="n">
         <v>130.2</v>
       </c>
-      <c r="V4" s="35" t="n">
+      <c r="V4" s="34" t="n">
         <v>2.7</v>
       </c>
-      <c r="W4" s="35" t="n">
+      <c r="W4" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X4" s="35" t="n">
+      <c r="X4" s="34" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="5" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+    <row r="5" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="58" t="n">
+      <c r="C5" s="57" t="n">
         <v>36</v>
       </c>
-      <c r="D5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="58" t="s">
+      <c r="D5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="37" t="n">
+      <c r="F5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="I5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="35" t="s">
+      <c r="I5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N5" s="35" t="n">
+      <c r="N5" s="34" t="n">
         <v>4.6</v>
       </c>
-      <c r="O5" s="35" t="n">
+      <c r="O5" s="34" t="n">
         <v>115</v>
       </c>
-      <c r="P5" s="35" t="n">
+      <c r="P5" s="34" t="n">
         <v>71.1</v>
       </c>
-      <c r="Q5" s="35" t="n">
+      <c r="Q5" s="34" t="n">
         <v>0.33</v>
       </c>
-      <c r="R5" s="35" t="n">
+      <c r="R5" s="34" t="n">
         <v>25</v>
       </c>
-      <c r="S5" s="35" t="n">
+      <c r="S5" s="34" t="n">
         <v>13.8</v>
       </c>
-      <c r="T5" s="35" t="n">
+      <c r="T5" s="34" t="n">
         <v>3.1</v>
       </c>
-      <c r="U5" s="35" t="n">
+      <c r="U5" s="34" t="n">
         <v>62</v>
       </c>
-      <c r="V5" s="35" t="n">
+      <c r="V5" s="34" t="n">
         <v>3.03</v>
       </c>
-      <c r="W5" s="35" t="n">
+      <c r="W5" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X5" s="35" t="n">
+      <c r="X5" s="34" t="n">
         <v>133.3</v>
       </c>
     </row>
-    <row r="6" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+    <row r="6" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="58" t="n">
+      <c r="C6" s="57" t="n">
         <v>37</v>
       </c>
-      <c r="D6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="37" t="n">
+      <c r="F6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36" t="n">
         <v>61</v>
       </c>
-      <c r="I6" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="35" t="s">
+      <c r="I6" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N6" s="59" t="n">
+      <c r="N6" s="58" t="n">
         <v>4.38</v>
       </c>
-      <c r="O6" s="35" t="n">
+      <c r="O6" s="34" t="n">
         <v>117</v>
       </c>
-      <c r="P6" s="59" t="n">
+      <c r="P6" s="58" t="n">
         <v>77.2</v>
       </c>
-      <c r="Q6" s="59" t="n">
+      <c r="Q6" s="58" t="n">
         <v>0.34</v>
       </c>
-      <c r="R6" s="59" t="n">
+      <c r="R6" s="58" t="n">
         <v>26.7</v>
       </c>
-      <c r="S6" s="59" t="n">
+      <c r="S6" s="58" t="n">
         <v>12.8</v>
       </c>
-      <c r="T6" s="59" t="n">
+      <c r="T6" s="58" t="n">
         <v>4.9</v>
       </c>
-      <c r="U6" s="59" t="n">
+      <c r="U6" s="58" t="n">
         <v>29.8</v>
       </c>
-      <c r="V6" s="59" t="n">
+      <c r="V6" s="58" t="n">
         <v>2.56</v>
       </c>
-      <c r="W6" s="59" t="n">
+      <c r="W6" s="58" t="n">
         <v>0.08</v>
       </c>
-      <c r="X6" s="59" t="n">
+      <c r="X6" s="58" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="7" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+    <row r="7" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="60" t="n">
+      <c r="C7" s="59" t="n">
         <v>40</v>
       </c>
-      <c r="D7" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="61" t="n">
+      <c r="D7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="60" t="n">
         <v>68</v>
       </c>
-      <c r="I7" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="62" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="62" t="s">
+      <c r="I7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M7" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="N7" s="62" t="n">
+      <c r="N7" s="61" t="n">
         <v>4.2</v>
       </c>
-      <c r="O7" s="62" t="n">
+      <c r="O7" s="61" t="n">
         <v>109</v>
       </c>
-      <c r="P7" s="62" t="n">
+      <c r="P7" s="61" t="n">
         <v>75.2</v>
       </c>
-      <c r="Q7" s="62" t="n">
+      <c r="Q7" s="61" t="n">
         <v>0.32</v>
       </c>
-      <c r="R7" s="62" t="n">
+      <c r="R7" s="61" t="n">
         <v>26</v>
       </c>
-      <c r="S7" s="63" t="n">
+      <c r="S7" s="62" t="n">
         <v>13.2</v>
       </c>
-      <c r="T7" s="62" t="n">
+      <c r="T7" s="61" t="n">
         <v>5.8</v>
       </c>
-      <c r="U7" s="62" t="n">
+      <c r="U7" s="61" t="n">
         <v>59.3</v>
       </c>
-      <c r="V7" s="62" t="n">
+      <c r="V7" s="61" t="n">
         <v>2.09</v>
       </c>
-      <c r="W7" s="62" t="n">
+      <c r="W7" s="61" t="n">
         <v>0.11</v>
       </c>
-      <c r="X7" s="62" t="n">
+      <c r="X7" s="61" t="n">
         <v>96.4</v>
       </c>
     </row>
-    <row r="8" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="35" t="s">
+    <row r="8" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="35" t="n">
+      <c r="C8" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="57" t="s">
+      <c r="D8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="64" t="n">
+      <c r="G8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="63" t="n">
         <v>17</v>
       </c>
-      <c r="I8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="35" t="s">
+      <c r="I8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N8" s="35" t="n">
+      <c r="N8" s="34" t="n">
         <v>4.16</v>
       </c>
-      <c r="O8" s="35" t="n">
+      <c r="O8" s="34" t="n">
         <v>105</v>
       </c>
-      <c r="P8" s="35" t="n">
+      <c r="P8" s="34" t="n">
         <v>71.2</v>
       </c>
-      <c r="Q8" s="35" t="n">
+      <c r="Q8" s="34" t="n">
         <v>0.3</v>
       </c>
-      <c r="R8" s="35" t="n">
+      <c r="R8" s="34" t="n">
         <v>25.2</v>
       </c>
-      <c r="S8" s="37" t="n">
+      <c r="S8" s="36" t="n">
         <v>14.4</v>
       </c>
-      <c r="T8" s="35" t="n">
+      <c r="T8" s="34" t="n">
         <v>2.1</v>
       </c>
-      <c r="U8" s="35" t="n">
+      <c r="U8" s="34" t="n">
         <v>267.6</v>
       </c>
-      <c r="V8" s="35" t="n">
+      <c r="V8" s="34" t="n">
         <v>1.76</v>
       </c>
-      <c r="W8" s="35" t="n">
+      <c r="W8" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X8" s="35" t="n">
+      <c r="X8" s="34" t="n">
         <v>115.8</v>
       </c>
     </row>
-    <row r="9" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="s">
+    <row r="9" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="35" t="n">
+      <c r="C9" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="64" t="n">
+      <c r="D9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="63" t="n">
         <v>58</v>
       </c>
-      <c r="I9" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="35" t="s">
+      <c r="I9" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N9" s="59" t="n">
+      <c r="N9" s="58" t="n">
         <v>4.62</v>
       </c>
-      <c r="O9" s="59" t="n">
+      <c r="O9" s="58" t="n">
         <v>116</v>
       </c>
-      <c r="P9" s="59" t="n">
+      <c r="P9" s="58" t="n">
         <v>71.2</v>
       </c>
-      <c r="Q9" s="59" t="n">
+      <c r="Q9" s="58" t="n">
         <v>0.33</v>
       </c>
-      <c r="R9" s="59" t="n">
+      <c r="R9" s="58" t="n">
         <v>25.1</v>
       </c>
-      <c r="S9" s="65" t="n">
+      <c r="S9" s="64" t="n">
         <v>13.1</v>
       </c>
-      <c r="T9" s="59" t="n">
+      <c r="T9" s="58" t="n">
         <v>3.1</v>
       </c>
-      <c r="U9" s="59" t="n">
+      <c r="U9" s="58" t="n">
         <v>61.9</v>
       </c>
-      <c r="V9" s="59" t="n">
+      <c r="V9" s="58" t="n">
         <v>2.6</v>
       </c>
-      <c r="W9" s="59" t="n">
+      <c r="W9" s="58" t="n">
         <v>0.05</v>
       </c>
-      <c r="X9" s="59" t="n">
+      <c r="X9" s="58" t="n">
         <v>78.4</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
+    <row r="10" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="35" t="n">
+      <c r="C10" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="37" t="n">
+      <c r="D10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="I10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="35" t="s">
+      <c r="I10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N10" s="35" t="n">
+      <c r="N10" s="34" t="n">
         <v>4.57</v>
       </c>
-      <c r="O10" s="35" t="n">
+      <c r="O10" s="34" t="n">
         <v>113</v>
       </c>
-      <c r="P10" s="35" t="n">
+      <c r="P10" s="34" t="n">
         <v>73.7</v>
       </c>
-      <c r="Q10" s="35" t="n">
+      <c r="Q10" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R10" s="35" t="n">
+      <c r="R10" s="34" t="n">
         <v>24.7</v>
       </c>
-      <c r="S10" s="37" t="n">
+      <c r="S10" s="36" t="n">
         <v>13.8</v>
       </c>
-      <c r="T10" s="35" t="n">
+      <c r="T10" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="U10" s="35" t="n">
+      <c r="U10" s="34" t="n">
         <v>80.3</v>
       </c>
-      <c r="V10" s="35" t="n">
+      <c r="V10" s="34" t="n">
         <v>2.76</v>
       </c>
-      <c r="W10" s="35" t="n">
+      <c r="W10" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X10" s="35" t="n">
+      <c r="X10" s="34" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="11" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="35" t="s">
+    <row r="11" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35" t="n">
+      <c r="C11" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="D11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37" t="n">
+      <c r="F11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36" t="n">
         <v>19</v>
       </c>
-      <c r="I11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="35" t="s">
+      <c r="I11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N11" s="35" t="n">
+      <c r="N11" s="34" t="n">
         <v>4.94</v>
       </c>
-      <c r="O11" s="35" t="n">
+      <c r="O11" s="34" t="n">
         <v>110</v>
       </c>
-      <c r="P11" s="35" t="n">
+      <c r="P11" s="34" t="n">
         <v>67.2</v>
       </c>
-      <c r="Q11" s="35" t="n">
+      <c r="Q11" s="34" t="n">
         <v>0.33</v>
       </c>
-      <c r="R11" s="35" t="n">
+      <c r="R11" s="34" t="n">
         <v>22.3</v>
       </c>
-      <c r="S11" s="37" t="n">
+      <c r="S11" s="36" t="n">
         <v>14.5</v>
       </c>
-      <c r="T11" s="35" t="n">
+      <c r="T11" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="U11" s="35" t="n">
+      <c r="U11" s="34" t="n">
         <v>34.9</v>
       </c>
-      <c r="V11" s="35" t="n">
+      <c r="V11" s="34" t="n">
         <v>3.08</v>
       </c>
-      <c r="W11" s="35" t="n">
+      <c r="W11" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X11" s="35" t="n">
+      <c r="X11" s="34" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="12" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="s">
+    <row r="12" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="35" t="n">
+      <c r="C12" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="D12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="37" t="n">
+      <c r="D12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="I12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="35" t="s">
+      <c r="I12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N12" s="35" t="n">
+      <c r="N12" s="34" t="n">
         <v>4.61</v>
       </c>
-      <c r="O12" s="35" t="n">
+      <c r="O12" s="34" t="n">
         <v>106</v>
       </c>
-      <c r="P12" s="35" t="n">
+      <c r="P12" s="34" t="n">
         <v>68.3</v>
       </c>
-      <c r="Q12" s="35" t="n">
+      <c r="Q12" s="34" t="n">
         <v>0.31</v>
       </c>
-      <c r="R12" s="35" t="n">
+      <c r="R12" s="34" t="n">
         <v>23</v>
       </c>
-      <c r="S12" s="37" t="n">
+      <c r="S12" s="36" t="n">
         <v>14.6</v>
       </c>
-      <c r="T12" s="35" t="n">
+      <c r="T12" s="34" t="n">
         <v>4.6</v>
       </c>
-      <c r="U12" s="35" t="n">
+      <c r="U12" s="34" t="n">
         <v>15.6</v>
       </c>
-      <c r="V12" s="35" t="n">
+      <c r="V12" s="34" t="n">
         <v>3.47</v>
       </c>
-      <c r="W12" s="35" t="n">
+      <c r="W12" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X12" s="35" t="n">
+      <c r="X12" s="34" t="n">
         <v>313.8</v>
       </c>
     </row>
-    <row r="13" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
+    <row r="13" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="35" t="n">
+      <c r="C13" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="37" t="n">
+      <c r="D13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36" t="n">
         <v>27</v>
       </c>
-      <c r="I13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="35" t="s">
+      <c r="I13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N13" s="35" t="n">
+      <c r="N13" s="34" t="n">
         <v>4.56</v>
       </c>
-      <c r="O13" s="35" t="n">
+      <c r="O13" s="34" t="n">
         <v>124</v>
       </c>
-      <c r="P13" s="35" t="n">
+      <c r="P13" s="34" t="n">
         <v>75.2</v>
       </c>
-      <c r="Q13" s="35" t="n">
+      <c r="Q13" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R13" s="35" t="n">
+      <c r="R13" s="34" t="n">
         <v>27.2</v>
       </c>
-      <c r="S13" s="37" t="n">
+      <c r="S13" s="36" t="n">
         <v>13.9</v>
       </c>
-      <c r="T13" s="35" t="n">
+      <c r="T13" s="34" t="n">
         <v>4.4</v>
       </c>
-      <c r="U13" s="35" t="n">
+      <c r="U13" s="34" t="n">
         <v>31.1</v>
       </c>
-      <c r="V13" s="35" t="n">
+      <c r="V13" s="34" t="n">
         <v>2.68</v>
       </c>
-      <c r="W13" s="35" t="n">
+      <c r="W13" s="34" t="n">
         <v>0.07</v>
       </c>
-      <c r="X13" s="35" t="n">
+      <c r="X13" s="34" t="n">
         <v>157.4</v>
       </c>
     </row>
-    <row r="14" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="35" t="s">
+    <row r="14" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="35" t="n">
+      <c r="C14" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="57" t="s">
+      <c r="D14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="37" t="n">
+      <c r="H14" s="36" t="n">
         <v>45</v>
       </c>
-      <c r="I14" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="35" t="s">
+      <c r="I14" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N14" s="59" t="n">
+      <c r="N14" s="58" t="n">
         <v>4.88</v>
       </c>
-      <c r="O14" s="59" t="n">
+      <c r="O14" s="58" t="n">
         <v>113</v>
       </c>
-      <c r="P14" s="59" t="n">
+      <c r="P14" s="58" t="n">
         <v>66.4</v>
       </c>
-      <c r="Q14" s="59" t="n">
+      <c r="Q14" s="58" t="n">
         <v>0.32</v>
       </c>
-      <c r="R14" s="59" t="n">
+      <c r="R14" s="58" t="n">
         <v>23.2</v>
       </c>
-      <c r="S14" s="65" t="n">
+      <c r="S14" s="64" t="n">
         <v>13.9</v>
       </c>
-      <c r="T14" s="59" t="n">
+      <c r="T14" s="58" t="n">
         <v>4</v>
       </c>
-      <c r="U14" s="59" t="n">
+      <c r="U14" s="58" t="n">
         <v>10.4</v>
       </c>
-      <c r="V14" s="59" t="n">
+      <c r="V14" s="58" t="n">
         <v>2.87</v>
       </c>
-      <c r="W14" s="59" t="n">
+      <c r="W14" s="58" t="n">
         <v>0.06</v>
       </c>
-      <c r="X14" s="59" t="n">
+      <c r="X14" s="58" t="n">
         <v>71.6</v>
       </c>
     </row>
-    <row r="15" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+    <row r="15" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="35" t="n">
+      <c r="C15" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="57" t="s">
+      <c r="D15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="G15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="37" t="n">
+      <c r="G15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="I15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="35" t="s">
+      <c r="I15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N15" s="35" t="n">
+      <c r="N15" s="34" t="n">
         <v>4.37</v>
       </c>
-      <c r="O15" s="35" t="n">
+      <c r="O15" s="34" t="n">
         <v>123</v>
       </c>
-      <c r="P15" s="35" t="n">
+      <c r="P15" s="34" t="n">
         <v>80.5</v>
       </c>
-      <c r="Q15" s="35" t="n">
+      <c r="Q15" s="34" t="n">
         <v>0.35</v>
       </c>
-      <c r="R15" s="35" t="n">
+      <c r="R15" s="34" t="n">
         <v>28.1</v>
       </c>
-      <c r="S15" s="37" t="n">
+      <c r="S15" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="T15" s="35" t="n">
+      <c r="T15" s="34" t="n">
         <v>2.9</v>
       </c>
-      <c r="U15" s="35" t="n">
+      <c r="U15" s="34" t="n">
         <v>127.9</v>
       </c>
-      <c r="V15" s="35" t="n">
+      <c r="V15" s="34" t="n">
         <v>2.51</v>
       </c>
-      <c r="W15" s="35" t="n">
+      <c r="W15" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X15" s="35" t="n">
+      <c r="X15" s="34" t="n">
         <v>94.3</v>
       </c>
     </row>
-    <row r="16" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+    <row r="16" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="35" t="n">
+      <c r="C16" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="37" t="n">
+      <c r="D16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="I16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="35" t="s">
+      <c r="I16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N16" s="35" t="n">
+      <c r="N16" s="34" t="n">
         <v>4.04</v>
       </c>
-      <c r="O16" s="35" t="n">
+      <c r="O16" s="34" t="n">
         <v>108</v>
       </c>
-      <c r="P16" s="35" t="n">
+      <c r="P16" s="34" t="n">
         <v>76</v>
       </c>
-      <c r="Q16" s="35" t="n">
+      <c r="Q16" s="34" t="n">
         <v>0.31</v>
       </c>
-      <c r="R16" s="35" t="n">
+      <c r="R16" s="34" t="n">
         <v>26.7</v>
       </c>
-      <c r="S16" s="37" t="n">
+      <c r="S16" s="36" t="n">
         <v>12.9</v>
       </c>
-      <c r="T16" s="35" t="n">
+      <c r="T16" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="U16" s="35" t="n">
+      <c r="U16" s="34" t="n">
         <v>72</v>
       </c>
-      <c r="V16" s="35" t="n">
+      <c r="V16" s="34" t="n">
         <v>1.94</v>
       </c>
-      <c r="W16" s="35" t="n">
+      <c r="W16" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X16" s="35" t="n">
+      <c r="X16" s="34" t="n">
         <v>116.3</v>
       </c>
     </row>
-    <row r="17" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+    <row r="17" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="35" t="n">
+      <c r="C17" s="34" t="n">
         <v>41</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="37" t="n">
+      <c r="F17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="n">
         <v>26</v>
       </c>
-      <c r="I17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="35" t="s">
+      <c r="I17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N17" s="35" t="n">
+      <c r="N17" s="34" t="n">
         <v>5.2</v>
       </c>
-      <c r="O17" s="35" t="n">
+      <c r="O17" s="34" t="n">
         <v>128</v>
       </c>
-      <c r="P17" s="35" t="n">
+      <c r="P17" s="34" t="n">
         <v>70.4</v>
       </c>
-      <c r="Q17" s="35" t="n">
+      <c r="Q17" s="34" t="n">
         <v>0.37</v>
       </c>
-      <c r="R17" s="35" t="n">
+      <c r="R17" s="34" t="n">
         <v>24.6</v>
       </c>
-      <c r="S17" s="37" t="n">
+      <c r="S17" s="36" t="n">
         <v>13.3</v>
       </c>
-      <c r="T17" s="35" t="n">
+      <c r="T17" s="34" t="n">
         <v>2.6</v>
       </c>
-      <c r="U17" s="35" t="n">
+      <c r="U17" s="34" t="n">
         <v>45.1</v>
       </c>
-      <c r="V17" s="35" t="n">
+      <c r="V17" s="34" t="n">
         <v>2.62</v>
       </c>
-      <c r="W17" s="35" t="n">
+      <c r="W17" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X17" s="35" t="n">
+      <c r="X17" s="34" t="n">
         <v>50.7</v>
       </c>
     </row>
-    <row r="18" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+    <row r="18" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="60" t="n">
+      <c r="C18" s="59" t="n">
         <v>39</v>
       </c>
-      <c r="D18" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="60" t="s">
+      <c r="D18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="59" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="66" t="n">
+      <c r="F18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="65" t="n">
         <v>27</v>
       </c>
-      <c r="I18" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="60" t="s">
+      <c r="I18" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="N18" s="60" t="n">
+      <c r="N18" s="59" t="n">
         <v>5.2</v>
       </c>
-      <c r="O18" s="60" t="n">
+      <c r="O18" s="59" t="n">
         <v>127</v>
       </c>
-      <c r="P18" s="60" t="n">
+      <c r="P18" s="59" t="n">
         <v>70.8</v>
       </c>
-      <c r="Q18" s="60" t="n">
+      <c r="Q18" s="59" t="n">
         <v>0.37</v>
       </c>
-      <c r="R18" s="60" t="n">
+      <c r="R18" s="59" t="n">
         <v>24.4</v>
       </c>
-      <c r="S18" s="66" t="n">
+      <c r="S18" s="65" t="n">
         <v>13.9</v>
       </c>
-      <c r="T18" s="60" t="n">
+      <c r="T18" s="59" t="n">
         <v>7.4</v>
       </c>
-      <c r="U18" s="60" t="n">
+      <c r="U18" s="59" t="n">
         <v>45.1</v>
       </c>
-      <c r="V18" s="60" t="n">
+      <c r="V18" s="59" t="n">
         <v>2.62</v>
       </c>
-      <c r="W18" s="60" t="n">
+      <c r="W18" s="59" t="n">
         <v>0.11</v>
       </c>
-      <c r="X18" s="60" t="n">
+      <c r="X18" s="59" t="n">
         <v>84.5</v>
       </c>
     </row>
-    <row r="19" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+    <row r="19" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="35" t="n">
+      <c r="C19" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="37" t="n">
+      <c r="D19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="36" t="n">
         <v>22</v>
       </c>
-      <c r="I19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="35" t="s">
+      <c r="I19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N19" s="35" t="n">
+      <c r="N19" s="34" t="n">
         <v>4.05</v>
       </c>
-      <c r="O19" s="35" t="n">
+      <c r="O19" s="34" t="n">
         <v>102</v>
       </c>
-      <c r="P19" s="35" t="n">
+      <c r="P19" s="34" t="n">
         <v>72.1</v>
       </c>
-      <c r="Q19" s="35" t="n">
+      <c r="Q19" s="34" t="n">
         <v>0.29</v>
       </c>
-      <c r="R19" s="35" t="n">
+      <c r="R19" s="34" t="n">
         <v>25.2</v>
       </c>
-      <c r="S19" s="37" t="n">
+      <c r="S19" s="36" t="n">
         <v>16</v>
       </c>
-      <c r="T19" s="35" t="n">
+      <c r="T19" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="U19" s="35" t="n">
+      <c r="U19" s="34" t="n">
         <v>39.1</v>
       </c>
-      <c r="V19" s="35" t="n">
+      <c r="V19" s="34" t="n">
         <v>2.31</v>
       </c>
-      <c r="W19" s="35" t="n">
+      <c r="W19" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X19" s="35" t="n">
+      <c r="X19" s="34" t="n">
         <v>71.2</v>
       </c>
     </row>
-    <row r="20" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+    <row r="20" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="60" t="n">
+      <c r="C20" s="59" t="n">
         <v>40</v>
       </c>
-      <c r="D20" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="60" t="s">
+      <c r="D20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="59" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="66" t="n">
+      <c r="F20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="65" t="n">
         <v>50</v>
       </c>
-      <c r="I20" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="60" t="s">
+      <c r="I20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="N20" s="60" t="n">
+      <c r="N20" s="59" t="n">
         <v>4.69</v>
       </c>
-      <c r="O20" s="60" t="n">
+      <c r="O20" s="59" t="n">
         <v>127</v>
       </c>
-      <c r="P20" s="60" t="n">
+      <c r="P20" s="59" t="n">
         <v>75.5</v>
       </c>
-      <c r="Q20" s="60" t="n">
+      <c r="Q20" s="59" t="n">
         <v>0.35</v>
       </c>
-      <c r="R20" s="60" t="n">
+      <c r="R20" s="59" t="n">
         <v>27.1</v>
       </c>
-      <c r="S20" s="66" t="n">
+      <c r="S20" s="65" t="n">
         <v>13.1</v>
       </c>
-      <c r="T20" s="60" t="n">
+      <c r="T20" s="59" t="n">
         <v>6.7</v>
       </c>
-      <c r="U20" s="60" t="n">
+      <c r="U20" s="59" t="n">
         <v>81.3</v>
       </c>
-      <c r="V20" s="60" t="n">
+      <c r="V20" s="59" t="n">
         <v>2.93</v>
       </c>
-      <c r="W20" s="60" t="n">
+      <c r="W20" s="59" t="n">
         <v>0.09</v>
       </c>
-      <c r="X20" s="60" t="n">
+      <c r="X20" s="59" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="21" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="35" t="s">
+    <row r="21" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="58" t="n">
+      <c r="C21" s="57" t="n">
         <v>37</v>
       </c>
-      <c r="D21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="58" t="s">
+      <c r="D21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="37" t="n">
+      <c r="F21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="I21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="35" t="s">
+      <c r="I21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N21" s="35" t="n">
+      <c r="N21" s="34" t="n">
         <v>4.21</v>
       </c>
-      <c r="O21" s="35" t="n">
+      <c r="O21" s="34" t="n">
         <v>118</v>
       </c>
-      <c r="P21" s="35" t="n">
+      <c r="P21" s="34" t="n">
         <v>78.6</v>
       </c>
-      <c r="Q21" s="35" t="n">
+      <c r="Q21" s="34" t="n">
         <v>0.33</v>
       </c>
-      <c r="R21" s="35" t="n">
+      <c r="R21" s="34" t="n">
         <v>28</v>
       </c>
-      <c r="S21" s="37" t="n">
+      <c r="S21" s="36" t="n">
         <v>12.9</v>
       </c>
-      <c r="T21" s="35" t="n">
+      <c r="T21" s="34" t="n">
         <v>9.4</v>
       </c>
-      <c r="U21" s="35" t="n">
+      <c r="U21" s="34" t="n">
         <v>25.9</v>
       </c>
-      <c r="V21" s="35" t="n">
+      <c r="V21" s="34" t="n">
         <v>2.93</v>
       </c>
-      <c r="W21" s="35" t="n">
+      <c r="W21" s="34" t="n">
         <v>0.13</v>
       </c>
-      <c r="X21" s="35" t="n">
+      <c r="X21" s="34" t="n">
         <v>62.2</v>
       </c>
     </row>
-    <row r="22" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="s">
+    <row r="22" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="35" t="n">
+      <c r="C22" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="37" t="n">
+      <c r="D22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="I22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="35" t="s">
+      <c r="I22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N22" s="35" t="n">
+      <c r="N22" s="34" t="n">
         <v>4.49</v>
       </c>
-      <c r="O22" s="35" t="n">
+      <c r="O22" s="34" t="n">
         <v>121</v>
       </c>
-      <c r="P22" s="35" t="n">
+      <c r="P22" s="34" t="n">
         <v>76.8</v>
       </c>
-      <c r="Q22" s="35" t="n">
+      <c r="Q22" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R22" s="35" t="n">
+      <c r="R22" s="34" t="n">
         <v>26.9</v>
       </c>
-      <c r="S22" s="37" t="n">
+      <c r="S22" s="36" t="n">
         <v>14.1</v>
       </c>
-      <c r="T22" s="35" t="n">
+      <c r="T22" s="34" t="n">
         <v>3.9</v>
       </c>
-      <c r="U22" s="35" t="n">
+      <c r="U22" s="34" t="n">
         <v>40.2</v>
       </c>
-      <c r="V22" s="35" t="n">
+      <c r="V22" s="34" t="n">
         <v>2.36</v>
       </c>
-      <c r="W22" s="35" t="n">
+      <c r="W22" s="34" t="n">
         <v>0.07</v>
       </c>
     </row>
-    <row r="23" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
+    <row r="23" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="35" t="n">
+      <c r="C23" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="37" t="n">
+      <c r="D23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="36" t="n">
         <v>26</v>
       </c>
-      <c r="I23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="35" t="s">
+      <c r="I23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N23" s="35" t="n">
+      <c r="N23" s="34" t="n">
         <v>4.9</v>
       </c>
-      <c r="O23" s="35" t="n">
+      <c r="O23" s="34" t="n">
         <v>119</v>
       </c>
-      <c r="P23" s="35" t="n">
+      <c r="P23" s="34" t="n">
         <v>68.8</v>
       </c>
-      <c r="Q23" s="35" t="n">
+      <c r="Q23" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R23" s="35" t="n">
+      <c r="R23" s="34" t="n">
         <v>24.3</v>
       </c>
-      <c r="S23" s="37" t="n">
+      <c r="S23" s="36" t="n">
         <v>13.4</v>
       </c>
-      <c r="T23" s="35" t="n">
+      <c r="T23" s="34" t="n">
         <v>2.8</v>
       </c>
-      <c r="U23" s="35" t="n">
+      <c r="U23" s="34" t="n">
         <v>35.3</v>
       </c>
-      <c r="V23" s="35" t="n">
+      <c r="V23" s="34" t="n">
         <v>3.26</v>
       </c>
-      <c r="W23" s="35" t="n">
+      <c r="W23" s="34" t="n">
         <v>0.03</v>
       </c>
-      <c r="X23" s="35" t="n">
+      <c r="X23" s="34" t="n">
         <v>76.3</v>
       </c>
     </row>
-    <row r="24" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
+    <row r="24" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="35" t="n">
+      <c r="C24" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="37" t="n">
+      <c r="D24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="36" t="n">
         <v>19</v>
       </c>
-      <c r="I24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="35" t="s">
+      <c r="I24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N24" s="35" t="n">
+      <c r="N24" s="34" t="n">
         <v>5.48</v>
       </c>
-      <c r="O24" s="35" t="n">
+      <c r="O24" s="34" t="n">
         <v>108</v>
       </c>
-      <c r="P24" s="35" t="n">
+      <c r="P24" s="34" t="n">
         <v>62</v>
       </c>
-      <c r="Q24" s="35" t="n">
+      <c r="Q24" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R24" s="35" t="n">
+      <c r="R24" s="34" t="n">
         <v>19.7</v>
       </c>
-      <c r="S24" s="37" t="n">
+      <c r="S24" s="36" t="n">
         <v>22.6</v>
       </c>
-      <c r="T24" s="35" t="n">
+      <c r="T24" s="34" t="n">
         <v>2.8</v>
       </c>
-      <c r="U24" s="35" t="n">
+      <c r="U24" s="34" t="n">
         <v>19.2</v>
       </c>
-      <c r="V24" s="35" t="n">
+      <c r="V24" s="34" t="n">
         <v>3.28</v>
       </c>
-      <c r="W24" s="35" t="n">
+      <c r="W24" s="34" t="n">
         <v>0.03</v>
       </c>
-      <c r="X24" s="35" t="n">
+      <c r="X24" s="34" t="n">
         <v>96.3</v>
       </c>
     </row>
-    <row r="25" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
+    <row r="25" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="35" t="n">
+      <c r="C25" s="34" t="n">
         <v>39</v>
       </c>
-      <c r="D25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="57" t="s">
+      <c r="D25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="56" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="37" t="n">
+      <c r="G25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="36" t="n">
         <v>21</v>
       </c>
-      <c r="I25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="35" t="s">
+      <c r="I25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N25" s="35" t="n">
+      <c r="N25" s="34" t="n">
         <v>4.32</v>
       </c>
-      <c r="O25" s="35" t="n">
+      <c r="O25" s="34" t="n">
         <v>110</v>
       </c>
-      <c r="P25" s="35" t="n">
+      <c r="P25" s="34" t="n">
         <v>74.1</v>
       </c>
-      <c r="Q25" s="35" t="n">
+      <c r="Q25" s="34" t="n">
         <v>0.32</v>
       </c>
-      <c r="R25" s="35" t="n">
+      <c r="R25" s="34" t="n">
         <v>25.5</v>
       </c>
-      <c r="S25" s="37" t="n">
+      <c r="S25" s="36" t="n">
         <v>12.8</v>
       </c>
-      <c r="T25" s="35" t="n">
+      <c r="T25" s="34" t="n">
         <v>2.6</v>
       </c>
-      <c r="U25" s="35" t="n">
+      <c r="U25" s="34" t="n">
         <v>30.5</v>
       </c>
-      <c r="V25" s="35" t="n">
+      <c r="V25" s="34" t="n">
         <v>2.46</v>
       </c>
-      <c r="W25" s="35" t="n">
+      <c r="W25" s="34" t="n">
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
+    <row r="26" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="60" t="n">
+      <c r="C26" s="59" t="n">
         <v>40</v>
       </c>
-      <c r="D26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="66" t="n">
+      <c r="D26" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="65" t="n">
         <v>23</v>
       </c>
-      <c r="I26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="60" t="s">
+      <c r="I26" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="N26" s="60" t="n">
+      <c r="N26" s="59" t="n">
         <v>4.78</v>
       </c>
-      <c r="O26" s="60" t="n">
+      <c r="O26" s="59" t="n">
         <v>129</v>
       </c>
-      <c r="P26" s="60" t="n">
+      <c r="P26" s="59" t="n">
         <v>76.8</v>
       </c>
-      <c r="Q26" s="60" t="n">
+      <c r="Q26" s="59" t="n">
         <v>0.37</v>
       </c>
-      <c r="R26" s="60" t="n">
+      <c r="R26" s="59" t="n">
         <v>27</v>
       </c>
-      <c r="S26" s="66" t="n">
+      <c r="S26" s="65" t="n">
         <v>12.6</v>
       </c>
-      <c r="T26" s="60" t="n">
+      <c r="T26" s="59" t="n">
         <v>9.8</v>
       </c>
-      <c r="U26" s="60" t="n">
+      <c r="U26" s="59" t="n">
         <v>18.3</v>
       </c>
-      <c r="V26" s="60" t="n">
+      <c r="V26" s="59" t="n">
         <v>3</v>
       </c>
-      <c r="W26" s="60" t="n">
+      <c r="W26" s="59" t="n">
         <v>0.13</v>
       </c>
-      <c r="X26" s="60" t="n">
+      <c r="X26" s="59" t="n">
         <v>89.9</v>
       </c>
     </row>
-    <row r="27" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+    <row r="27" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="58" t="n">
+      <c r="C27" s="57" t="n">
         <v>36</v>
       </c>
-      <c r="D27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="58" t="s">
+      <c r="D27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="37" t="n">
+      <c r="F27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="36" t="n">
         <v>50</v>
       </c>
-      <c r="I27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" s="35" t="s">
+      <c r="I27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N27" s="35" t="n">
+      <c r="N27" s="34" t="n">
         <v>4.68</v>
       </c>
-      <c r="O27" s="35" t="n">
+      <c r="O27" s="34" t="n">
         <v>127</v>
       </c>
-      <c r="P27" s="35" t="n">
+      <c r="P27" s="34" t="n">
         <v>78.8</v>
       </c>
-      <c r="Q27" s="35" t="n">
+      <c r="Q27" s="34" t="n">
         <v>0.37</v>
       </c>
-      <c r="R27" s="35" t="n">
+      <c r="R27" s="34" t="n">
         <v>27.1</v>
       </c>
-      <c r="S27" s="37" t="n">
+      <c r="S27" s="36" t="n">
         <v>13.6</v>
       </c>
-      <c r="T27" s="35" t="n">
+      <c r="T27" s="34" t="n">
         <v>4.7</v>
       </c>
-      <c r="U27" s="35" t="n">
+      <c r="U27" s="34" t="n">
         <v>53.6</v>
       </c>
-      <c r="V27" s="35" t="n">
+      <c r="V27" s="34" t="n">
         <v>3.2</v>
       </c>
-      <c r="W27" s="35" t="n">
+      <c r="W27" s="34" t="n">
         <v>0.06</v>
       </c>
-      <c r="X27" s="35" t="n">
+      <c r="X27" s="34" t="n">
         <v>20.5</v>
       </c>
     </row>
-    <row r="28" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
+    <row r="28" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="35" t="n">
+      <c r="C28" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="D28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="37" t="n">
+      <c r="D28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="I28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" s="35" t="s">
+      <c r="I28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N28" s="35" t="n">
+      <c r="N28" s="34" t="n">
         <v>5.38</v>
       </c>
-      <c r="O28" s="35" t="n">
+      <c r="O28" s="34" t="n">
         <v>108</v>
       </c>
-      <c r="P28" s="35" t="n">
+      <c r="P28" s="34" t="n">
         <v>62.8</v>
       </c>
-      <c r="Q28" s="35" t="n">
+      <c r="Q28" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R28" s="35" t="n">
+      <c r="R28" s="34" t="n">
         <v>20.1</v>
       </c>
-      <c r="S28" s="37" t="n">
+      <c r="S28" s="36" t="n">
         <v>16.7</v>
       </c>
-      <c r="T28" s="35" t="n">
+      <c r="T28" s="34" t="n">
         <v>4.4</v>
       </c>
-      <c r="U28" s="35" t="n">
+      <c r="U28" s="34" t="n">
         <v>19.2</v>
       </c>
-      <c r="V28" s="35" t="n">
+      <c r="V28" s="34" t="n">
         <v>3.84</v>
       </c>
-      <c r="W28" s="35" t="n">
+      <c r="W28" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X28" s="35" t="n">
+      <c r="X28" s="34" t="n">
         <v>24.1</v>
       </c>
     </row>
-    <row r="29" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
+    <row r="29" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="35" t="n">
+      <c r="C29" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="37" t="n">
+      <c r="D29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="I29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" s="35" t="s">
+      <c r="I29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N29" s="35" t="n">
+      <c r="N29" s="34" t="n">
         <v>4.85</v>
       </c>
-      <c r="O29" s="35" t="n">
+      <c r="O29" s="34" t="n">
         <v>121</v>
       </c>
-      <c r="P29" s="35" t="n">
+      <c r="P29" s="34" t="n">
         <v>71.5</v>
       </c>
-      <c r="Q29" s="35" t="n">
+      <c r="Q29" s="34" t="n">
         <v>0.35</v>
       </c>
-      <c r="R29" s="35" t="n">
+      <c r="R29" s="34" t="n">
         <v>24.9</v>
       </c>
-      <c r="S29" s="37" t="n">
+      <c r="S29" s="36" t="n">
         <v>12.9</v>
       </c>
-      <c r="T29" s="35" t="n">
+      <c r="T29" s="34" t="n">
         <v>4.7</v>
       </c>
-      <c r="U29" s="35" t="n">
+      <c r="U29" s="34" t="n">
         <v>158.9</v>
       </c>
-      <c r="V29" s="35" t="n">
+      <c r="V29" s="34" t="n">
         <v>2.34</v>
       </c>
-      <c r="W29" s="35" t="n">
+      <c r="W29" s="34" t="n">
         <v>0.08</v>
       </c>
-      <c r="X29" s="35" t="n">
+      <c r="X29" s="34" t="n">
         <v>111.5</v>
       </c>
     </row>
-    <row r="30" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="35" t="s">
+    <row r="30" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="35" t="n">
+      <c r="C30" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="37" t="n">
+      <c r="D30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="36" t="n">
         <v>37</v>
       </c>
-      <c r="I30" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" s="35" t="s">
+      <c r="I30" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N30" s="59" t="n">
+      <c r="N30" s="58" t="n">
         <v>4.19</v>
       </c>
-      <c r="O30" s="59" t="n">
+      <c r="O30" s="58" t="n">
         <v>110</v>
       </c>
-      <c r="P30" s="59" t="n">
+      <c r="P30" s="58" t="n">
         <v>76.4</v>
       </c>
-      <c r="Q30" s="59" t="n">
+      <c r="Q30" s="58" t="n">
         <v>0.32</v>
       </c>
-      <c r="R30" s="59" t="n">
+      <c r="R30" s="58" t="n">
         <v>26.3</v>
       </c>
-      <c r="S30" s="65" t="n">
+      <c r="S30" s="64" t="n">
         <v>13.8</v>
       </c>
-      <c r="T30" s="59" t="n">
+      <c r="T30" s="58" t="n">
         <v>5.4</v>
       </c>
-      <c r="U30" s="59" t="n">
+      <c r="U30" s="58" t="n">
         <v>19.5</v>
       </c>
-      <c r="V30" s="59" t="n">
+      <c r="V30" s="58" t="n">
         <v>2.76</v>
       </c>
-      <c r="W30" s="59" t="n">
+      <c r="W30" s="58" t="n">
         <v>0.08</v>
       </c>
-      <c r="X30" s="59" t="n">
+      <c r="X30" s="58" t="n">
         <v>67.8</v>
       </c>
     </row>
-    <row r="31" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
+    <row r="31" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="35" t="n">
+      <c r="C31" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="37" t="n">
+      <c r="D31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="I31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="68" t="s">
+      <c r="I31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N31" s="68" t="n">
+      <c r="N31" s="67" t="n">
         <v>3.61</v>
       </c>
-      <c r="O31" s="68" t="n">
+      <c r="O31" s="67" t="n">
         <v>94</v>
       </c>
-      <c r="P31" s="68" t="n">
+      <c r="P31" s="67" t="n">
         <v>75.9</v>
       </c>
-      <c r="Q31" s="68" t="n">
+      <c r="Q31" s="67" t="n">
         <v>0.27</v>
       </c>
-      <c r="R31" s="68" t="n">
+      <c r="R31" s="67" t="n">
         <v>26</v>
       </c>
-      <c r="S31" s="69" t="n">
+      <c r="S31" s="68" t="n">
         <v>12.6</v>
       </c>
-      <c r="T31" s="68" t="n">
+      <c r="T31" s="67" t="n">
         <v>2.2</v>
       </c>
-      <c r="U31" s="68" t="n">
+      <c r="U31" s="67" t="n">
         <v>69.8</v>
       </c>
-      <c r="V31" s="68" t="n">
+      <c r="V31" s="67" t="n">
         <v>2.07</v>
       </c>
-      <c r="W31" s="68" t="n">
+      <c r="W31" s="67" t="n">
         <v>0.04</v>
       </c>
-      <c r="X31" s="68" t="n">
+      <c r="X31" s="67" t="n">
         <v>135.4</v>
       </c>
     </row>
-    <row r="32" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35" t="s">
+    <row r="32" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="35" t="n">
+      <c r="C32" s="34" t="n">
         <v>39</v>
       </c>
-      <c r="D32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="37" t="n">
+      <c r="D32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="I32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K32" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" s="35" t="s">
+      <c r="I32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N32" s="35" t="n">
+      <c r="N32" s="34" t="n">
         <v>4.84</v>
       </c>
-      <c r="O32" s="35" t="n">
+      <c r="O32" s="34" t="n">
         <v>122</v>
       </c>
-      <c r="P32" s="35" t="n">
+      <c r="P32" s="34" t="n">
         <v>75.4</v>
       </c>
-      <c r="Q32" s="35" t="n">
+      <c r="Q32" s="34" t="n">
         <v>0.36</v>
       </c>
-      <c r="R32" s="35" t="n">
+      <c r="R32" s="34" t="n">
         <v>25.2</v>
       </c>
-      <c r="S32" s="37" t="n">
+      <c r="S32" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="T32" s="35" t="n">
+      <c r="T32" s="34" t="n">
         <v>3.8</v>
       </c>
-      <c r="U32" s="35" t="n">
+      <c r="U32" s="34" t="n">
         <v>97</v>
       </c>
-      <c r="V32" s="35" t="n">
+      <c r="V32" s="34" t="n">
         <v>2.94</v>
       </c>
-      <c r="W32" s="35" t="n">
+      <c r="W32" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X32" s="35" t="n">
+      <c r="X32" s="34" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="33" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="35" t="s">
+    <row r="33" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="35" t="n">
+      <c r="C33" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="37" t="n">
+      <c r="D33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="I33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" s="35" t="s">
+      <c r="I33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N33" s="35" t="n">
+      <c r="N33" s="34" t="n">
         <v>4.63</v>
       </c>
-      <c r="O33" s="35" t="n">
+      <c r="O33" s="34" t="n">
         <v>114</v>
       </c>
-      <c r="P33" s="35" t="n">
+      <c r="P33" s="34" t="n">
         <v>71.5</v>
       </c>
-      <c r="Q33" s="35" t="n">
+      <c r="Q33" s="34" t="n">
         <v>0.33</v>
       </c>
-      <c r="R33" s="35" t="n">
+      <c r="R33" s="34" t="n">
         <v>24.6</v>
       </c>
-      <c r="S33" s="37" t="n">
+      <c r="S33" s="36" t="n">
         <v>13.6</v>
       </c>
-      <c r="T33" s="35" t="n">
+      <c r="T33" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="U33" s="35" t="n">
+      <c r="U33" s="34" t="n">
         <v>42.2</v>
       </c>
-      <c r="V33" s="35" t="n">
+      <c r="V33" s="34" t="n">
         <v>2.92</v>
       </c>
-      <c r="W33" s="35" t="n">
+      <c r="W33" s="34" t="n">
         <v>0.08</v>
       </c>
-      <c r="X33" s="35" t="n">
+      <c r="X33" s="34" t="n">
         <v>149.2</v>
       </c>
     </row>
-    <row r="34" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="s">
+    <row r="34" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="35" t="n">
+      <c r="C34" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="D34" s="70" t="s">
+      <c r="D34" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="E34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="37" t="n">
+      <c r="E34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="36" t="n">
         <v>16</v>
       </c>
-      <c r="I34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" s="35" t="s">
+      <c r="I34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N34" s="35" t="n">
+      <c r="N34" s="34" t="n">
         <v>4.62</v>
       </c>
-      <c r="O34" s="35" t="n">
+      <c r="O34" s="34" t="n">
         <v>114</v>
       </c>
-      <c r="P34" s="35" t="n">
+      <c r="P34" s="34" t="n">
         <v>70.6</v>
       </c>
-      <c r="Q34" s="35" t="n">
+      <c r="Q34" s="34" t="n">
         <v>0.33</v>
       </c>
-      <c r="R34" s="35" t="n">
+      <c r="R34" s="34" t="n">
         <v>24.7</v>
       </c>
-      <c r="S34" s="37" t="n">
+      <c r="S34" s="36" t="n">
         <v>16.9</v>
       </c>
-      <c r="T34" s="35" t="n">
+      <c r="T34" s="34" t="n">
         <v>4.3</v>
       </c>
-      <c r="U34" s="35" t="n">
+      <c r="U34" s="34" t="n">
         <v>20.3</v>
       </c>
-      <c r="V34" s="35" t="n">
+      <c r="V34" s="34" t="n">
         <v>3.29</v>
       </c>
-      <c r="W34" s="35" t="n">
+      <c r="W34" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X34" s="35" t="n">
+      <c r="X34" s="34" t="n">
         <v>63.9</v>
       </c>
     </row>
-    <row r="35" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="s">
+    <row r="35" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="35" t="n">
+      <c r="C35" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="37" t="n">
+      <c r="D35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="I35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="35" t="s">
+      <c r="I35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K35" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N35" s="35" t="n">
+      <c r="N35" s="34" t="n">
         <v>4.52</v>
       </c>
-      <c r="O35" s="35" t="n">
+      <c r="O35" s="34" t="n">
         <v>119</v>
       </c>
-      <c r="P35" s="35" t="n">
+      <c r="P35" s="34" t="n">
         <v>75.4</v>
       </c>
-      <c r="Q35" s="35" t="n">
+      <c r="Q35" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R35" s="35" t="n">
+      <c r="R35" s="34" t="n">
         <v>26.3</v>
       </c>
-      <c r="S35" s="37" t="n">
+      <c r="S35" s="36" t="n">
         <v>13.7</v>
       </c>
-      <c r="T35" s="35" t="n">
+      <c r="T35" s="34" t="n">
         <v>3.1</v>
       </c>
-      <c r="U35" s="35" t="n">
+      <c r="U35" s="34" t="n">
         <v>69.4</v>
       </c>
-      <c r="V35" s="35" t="n">
+      <c r="V35" s="34" t="n">
         <v>2.42</v>
       </c>
-      <c r="W35" s="35" t="n">
+      <c r="W35" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X35" s="35" t="n">
+      <c r="X35" s="34" t="n">
         <v>96.1</v>
       </c>
     </row>
-    <row r="36" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
+    <row r="36" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="35" t="n">
+      <c r="C36" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="37" t="n">
+      <c r="D36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="I36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" s="35" t="s">
+      <c r="I36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N36" s="35" t="n">
+      <c r="N36" s="34" t="n">
         <v>4.28</v>
       </c>
-      <c r="O36" s="35" t="n">
+      <c r="O36" s="34" t="n">
         <v>109</v>
       </c>
-      <c r="P36" s="35" t="n">
+      <c r="P36" s="34" t="n">
         <v>73.3</v>
       </c>
-      <c r="Q36" s="35" t="n">
+      <c r="Q36" s="34" t="n">
         <v>0.31</v>
       </c>
-      <c r="R36" s="35" t="n">
+      <c r="R36" s="34" t="n">
         <v>25.5</v>
       </c>
-      <c r="S36" s="37" t="n">
+      <c r="S36" s="36" t="n">
         <v>13.6</v>
       </c>
-      <c r="T36" s="35" t="n">
+      <c r="T36" s="34" t="n">
         <v>2.6</v>
       </c>
-      <c r="U36" s="35" t="n">
+      <c r="U36" s="34" t="n">
         <v>48.4</v>
       </c>
-      <c r="V36" s="35" t="n">
+      <c r="V36" s="34" t="n">
         <v>2.34</v>
       </c>
-      <c r="W36" s="35" t="n">
+      <c r="W36" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X36" s="35" t="n">
+      <c r="X36" s="34" t="n">
         <v>124.8</v>
       </c>
     </row>
-    <row r="37" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+    <row r="37" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="35" t="n">
+      <c r="C37" s="34" t="n">
         <v>39</v>
       </c>
-      <c r="D37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="37" t="n">
+      <c r="D37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="I37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" s="35" t="s">
+      <c r="I37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N37" s="35" t="n">
+      <c r="N37" s="34" t="n">
         <v>4.05</v>
       </c>
-      <c r="O37" s="35" t="n">
+      <c r="O37" s="34" t="n">
         <v>103</v>
       </c>
-      <c r="P37" s="35" t="n">
+      <c r="P37" s="34" t="n">
         <v>75.6</v>
       </c>
-      <c r="Q37" s="35" t="n">
+      <c r="Q37" s="34" t="n">
         <v>0.31</v>
       </c>
-      <c r="R37" s="35" t="n">
+      <c r="R37" s="34" t="n">
         <v>25.4</v>
       </c>
-      <c r="S37" s="37" t="n">
+      <c r="S37" s="36" t="n">
         <v>15.8</v>
       </c>
-      <c r="T37" s="35" t="n">
+      <c r="T37" s="34" t="n">
         <v>1.6</v>
       </c>
-      <c r="U37" s="35" t="n">
+      <c r="U37" s="34" t="n">
         <v>107</v>
       </c>
-      <c r="V37" s="35" t="n">
+      <c r="V37" s="34" t="n">
         <v>2.91</v>
       </c>
-      <c r="W37" s="35" t="n">
+      <c r="W37" s="34" t="n">
         <v>0.02</v>
       </c>
-      <c r="X37" s="35" t="n">
+      <c r="X37" s="34" t="n">
         <v>33.5</v>
       </c>
     </row>
-    <row r="38" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
+    <row r="38" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="35" t="n">
+      <c r="C38" s="34" t="n">
         <v>35</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>295</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="F38" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="37" t="n">
+      <c r="F38" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="36" t="n">
         <v>47</v>
       </c>
-      <c r="I38" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" s="35" t="s">
+      <c r="I38" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N38" s="59" t="n">
+      <c r="N38" s="58" t="n">
         <v>5.37</v>
       </c>
-      <c r="O38" s="59" t="n">
+      <c r="O38" s="58" t="n">
         <v>130</v>
       </c>
-      <c r="P38" s="59" t="n">
+      <c r="P38" s="58" t="n">
         <v>75.6</v>
       </c>
-      <c r="Q38" s="59" t="n">
+      <c r="Q38" s="58" t="n">
         <v>0.41</v>
       </c>
-      <c r="R38" s="59" t="n">
+      <c r="R38" s="58" t="n">
         <v>27.9</v>
       </c>
-      <c r="S38" s="65" t="n">
+      <c r="S38" s="64" t="n">
         <v>13.3</v>
       </c>
-      <c r="T38" s="59" t="n">
+      <c r="T38" s="58" t="n">
         <v>3.6</v>
       </c>
-      <c r="U38" s="59" t="n">
+      <c r="U38" s="58" t="n">
         <v>44.9</v>
       </c>
-      <c r="V38" s="59" t="n">
+      <c r="V38" s="58" t="n">
         <v>2.68</v>
       </c>
-      <c r="W38" s="59" t="n">
+      <c r="W38" s="58" t="n">
         <v>0.05</v>
       </c>
-      <c r="X38" s="59" t="n">
+      <c r="X38" s="58" t="n">
         <v>44.5</v>
       </c>
     </row>
-    <row r="39" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="35" t="s">
+    <row r="39" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="35" t="n">
+      <c r="C39" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="37" t="n">
+      <c r="D39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="36" t="n">
         <v>19</v>
       </c>
-      <c r="I39" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="35" t="s">
+      <c r="I39" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N39" s="59" t="n">
+      <c r="N39" s="58" t="n">
         <v>4.69</v>
       </c>
-      <c r="O39" s="59" t="n">
+      <c r="O39" s="58" t="n">
         <v>129</v>
       </c>
-      <c r="P39" s="59" t="n">
+      <c r="P39" s="58" t="n">
         <v>74.8</v>
       </c>
-      <c r="Q39" s="59" t="n">
+      <c r="Q39" s="58" t="n">
         <v>0.35</v>
       </c>
-      <c r="R39" s="59" t="n">
+      <c r="R39" s="58" t="n">
         <v>27.5</v>
       </c>
-      <c r="S39" s="65" t="n">
+      <c r="S39" s="64" t="n">
         <v>12.6</v>
       </c>
-      <c r="T39" s="59" t="n">
+      <c r="T39" s="58" t="n">
         <v>3.5</v>
       </c>
-      <c r="U39" s="59" t="n">
+      <c r="U39" s="58" t="n">
         <v>43.4</v>
       </c>
-      <c r="V39" s="59" t="n">
+      <c r="V39" s="58" t="n">
         <v>2.48</v>
       </c>
-      <c r="W39" s="59" t="n">
+      <c r="W39" s="58" t="n">
         <v>0.06</v>
       </c>
-      <c r="X39" s="59" t="n">
+      <c r="X39" s="58" t="n">
         <v>84.2</v>
       </c>
     </row>
-    <row r="40" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35" t="s">
+    <row r="40" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="35" t="n">
+      <c r="C40" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="37" t="n">
+      <c r="D40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="I40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" s="68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="68" t="s">
+      <c r="I40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="M40" s="35" t="s">
+      <c r="M40" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N40" s="68" t="n">
+      <c r="N40" s="67" t="n">
         <v>4.85</v>
       </c>
-      <c r="O40" s="68" t="n">
+      <c r="O40" s="67" t="n">
         <v>114</v>
       </c>
-      <c r="P40" s="68" t="n">
+      <c r="P40" s="67" t="n">
         <v>68</v>
       </c>
-      <c r="Q40" s="68" t="n">
+      <c r="Q40" s="67" t="n">
         <v>0.33</v>
       </c>
-      <c r="R40" s="68" t="n">
+      <c r="R40" s="67" t="n">
         <v>23.5</v>
       </c>
-      <c r="S40" s="69" t="n">
+      <c r="S40" s="68" t="n">
         <v>13.6</v>
       </c>
-      <c r="T40" s="68" t="n">
+      <c r="T40" s="67" t="n">
         <v>3.4</v>
       </c>
-      <c r="U40" s="68" t="n">
+      <c r="U40" s="67" t="n">
         <v>15.5</v>
       </c>
-      <c r="V40" s="68" t="n">
+      <c r="V40" s="67" t="n">
         <v>3.41</v>
       </c>
-      <c r="W40" s="68" t="n">
+      <c r="W40" s="67" t="n">
         <v>0.04</v>
       </c>
-      <c r="X40" s="68" t="n">
+      <c r="X40" s="67" t="n">
         <v>148.2</v>
       </c>
     </row>
-    <row r="41" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="35" t="s">
+    <row r="41" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="58" t="n">
+      <c r="C41" s="57" t="n">
         <v>36</v>
       </c>
-      <c r="D41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" s="58" t="s">
+      <c r="D41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="37" t="n">
+      <c r="F41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="I41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" s="35" t="s">
+      <c r="I41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N41" s="35" t="n">
+      <c r="N41" s="34" t="n">
         <v>5.23</v>
       </c>
-      <c r="O41" s="35" t="n">
+      <c r="O41" s="34" t="n">
         <v>90</v>
       </c>
-      <c r="P41" s="35" t="n">
+      <c r="P41" s="34" t="n">
         <v>55.4</v>
       </c>
-      <c r="Q41" s="35" t="n">
+      <c r="Q41" s="34" t="n">
         <v>0.29</v>
       </c>
-      <c r="R41" s="35" t="n">
+      <c r="R41" s="34" t="n">
         <v>17.2</v>
       </c>
-      <c r="S41" s="37" t="n">
+      <c r="S41" s="36" t="n">
         <v>17.7</v>
       </c>
-      <c r="T41" s="35" t="n">
+      <c r="T41" s="34" t="n">
         <v>4.7</v>
       </c>
-      <c r="U41" s="35" t="n">
+      <c r="U41" s="34" t="n">
         <v>3.3</v>
       </c>
-      <c r="V41" s="35" t="n">
+      <c r="V41" s="34" t="n">
         <v>3.68</v>
       </c>
-      <c r="W41" s="35" t="n">
+      <c r="W41" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X41" s="35" t="n">
+      <c r="X41" s="34" t="n">
         <v>78.6</v>
       </c>
     </row>
-    <row r="42" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35" t="s">
+    <row r="42" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="35" t="n">
+      <c r="C42" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="D42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="37" t="n">
+      <c r="D42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36" t="n">
         <v>32</v>
       </c>
-      <c r="I42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" s="35" t="s">
+      <c r="I42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N42" s="35" t="n">
+      <c r="N42" s="34" t="n">
         <v>4.35</v>
       </c>
-      <c r="O42" s="35" t="n">
+      <c r="O42" s="34" t="n">
         <v>116</v>
       </c>
-      <c r="P42" s="35" t="n">
+      <c r="P42" s="34" t="n">
         <v>76.8</v>
       </c>
-      <c r="Q42" s="35" t="n">
+      <c r="Q42" s="34" t="n">
         <v>0.33</v>
       </c>
-      <c r="R42" s="35" t="n">
+      <c r="R42" s="34" t="n">
         <v>26.7</v>
       </c>
-      <c r="S42" s="37" t="n">
+      <c r="S42" s="36" t="n">
         <v>13.8</v>
       </c>
-      <c r="T42" s="35" t="n">
+      <c r="T42" s="34" t="n">
         <v>3.3</v>
       </c>
-      <c r="U42" s="35" t="n">
+      <c r="U42" s="34" t="n">
         <v>33.6</v>
       </c>
-      <c r="V42" s="35" t="n">
+      <c r="V42" s="34" t="n">
         <v>2.51</v>
       </c>
-      <c r="W42" s="35" t="n">
+      <c r="W42" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X42" s="35" t="n">
+      <c r="X42" s="34" t="n">
         <v>111.9</v>
       </c>
     </row>
-    <row r="43" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="35" t="s">
+    <row r="43" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="35" t="n">
+      <c r="C43" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="37" t="n">
+      <c r="D43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36" t="n">
         <v>17</v>
       </c>
-      <c r="I43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="35" t="s">
+      <c r="I43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N43" s="35" t="n">
+      <c r="N43" s="34" t="n">
         <v>4.18</v>
       </c>
-      <c r="O43" s="35" t="n">
+      <c r="O43" s="34" t="n">
         <v>112</v>
       </c>
-      <c r="P43" s="35" t="n">
+      <c r="P43" s="34" t="n">
         <v>76.8</v>
       </c>
-      <c r="Q43" s="35" t="n">
+      <c r="Q43" s="34" t="n">
         <v>0.32</v>
       </c>
-      <c r="R43" s="35" t="n">
+      <c r="R43" s="34" t="n">
         <v>26.8</v>
       </c>
-      <c r="S43" s="37" t="n">
+      <c r="S43" s="36" t="n">
         <v>14.4</v>
       </c>
-      <c r="T43" s="35" t="n">
+      <c r="T43" s="34" t="n">
         <v>4.9</v>
       </c>
-      <c r="U43" s="35" t="n">
+      <c r="U43" s="34" t="n">
         <v>44</v>
       </c>
-      <c r="V43" s="35" t="n">
+      <c r="V43" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="W43" s="35" t="n">
+      <c r="W43" s="34" t="n">
         <v>0.07</v>
       </c>
-      <c r="X43" s="35" t="n">
+      <c r="X43" s="34" t="n">
         <v>117.9</v>
       </c>
     </row>
-    <row r="44" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35" t="s">
+    <row r="44" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="35" t="n">
+      <c r="C44" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="37" t="n">
+      <c r="D44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36" t="n">
         <v>27</v>
       </c>
-      <c r="I44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" s="35" t="s">
+      <c r="I44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N44" s="35" t="n">
+      <c r="N44" s="34" t="n">
         <v>4.3</v>
       </c>
-      <c r="O44" s="35" t="n">
+      <c r="O44" s="34" t="n">
         <v>113</v>
       </c>
-      <c r="P44" s="35" t="n">
+      <c r="P44" s="34" t="n">
         <v>74.7</v>
       </c>
-      <c r="Q44" s="35" t="n">
+      <c r="Q44" s="34" t="n">
         <v>0.32</v>
       </c>
-      <c r="R44" s="35" t="n">
+      <c r="R44" s="34" t="n">
         <v>26.3</v>
       </c>
-      <c r="S44" s="37" t="n">
+      <c r="S44" s="36" t="n">
         <v>14.6</v>
       </c>
-      <c r="T44" s="35" t="n">
+      <c r="T44" s="34" t="n">
         <v>2.5</v>
       </c>
-      <c r="U44" s="35" t="n">
+      <c r="U44" s="34" t="n">
         <v>48.5</v>
       </c>
-      <c r="V44" s="35" t="n">
+      <c r="V44" s="34" t="n">
         <v>2.85</v>
       </c>
-      <c r="W44" s="35" t="n">
+      <c r="W44" s="34" t="n">
         <v>0.03</v>
       </c>
-      <c r="X44" s="35" t="n">
+      <c r="X44" s="34" t="n">
         <v>87.2</v>
       </c>
     </row>
-    <row r="45" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="35" t="s">
+    <row r="45" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="35" t="n">
+      <c r="C45" s="34" t="n">
         <v>41</v>
       </c>
-      <c r="D45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="37" t="n">
+      <c r="D45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36" t="n">
         <v>35</v>
       </c>
-      <c r="I45" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="35" t="s">
+      <c r="I45" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N45" s="59" t="n">
+      <c r="N45" s="58" t="n">
         <v>3.99</v>
       </c>
-      <c r="O45" s="59" t="n">
+      <c r="O45" s="58" t="n">
         <v>111</v>
       </c>
-      <c r="P45" s="59" t="n">
+      <c r="P45" s="58" t="n">
         <v>79.9</v>
       </c>
-      <c r="Q45" s="59" t="n">
+      <c r="Q45" s="58" t="n">
         <v>0.32</v>
       </c>
-      <c r="R45" s="59" t="n">
+      <c r="R45" s="58" t="n">
         <v>27.8</v>
       </c>
-      <c r="S45" s="65" t="n">
+      <c r="S45" s="64" t="n">
         <v>15.7</v>
       </c>
-      <c r="T45" s="59" t="n">
+      <c r="T45" s="58" t="n">
         <v>3.5</v>
       </c>
-      <c r="U45" s="59" t="n">
+      <c r="U45" s="58" t="n">
         <v>96.7</v>
       </c>
-      <c r="V45" s="59" t="n">
+      <c r="V45" s="58" t="n">
         <v>2.64</v>
       </c>
-      <c r="W45" s="59" t="n">
+      <c r="W45" s="58" t="n">
         <v>0.05</v>
       </c>
-      <c r="X45" s="59" t="n">
+      <c r="X45" s="58" t="n">
         <v>105.2</v>
       </c>
     </row>
-    <row r="46" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="35" t="s">
+    <row r="46" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="35" t="n">
+      <c r="C46" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="E46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="37" t="n">
+      <c r="E46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36" t="n">
         <v>11</v>
       </c>
-      <c r="I46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" s="35" t="s">
+      <c r="I46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N46" s="35" t="n">
+      <c r="N46" s="34" t="n">
         <v>4.25</v>
       </c>
-      <c r="O46" s="35" t="n">
+      <c r="O46" s="34" t="n">
         <v>109</v>
       </c>
-      <c r="P46" s="35" t="n">
+      <c r="P46" s="34" t="n">
         <v>73.2</v>
       </c>
-      <c r="Q46" s="35" t="n">
+      <c r="Q46" s="34" t="n">
         <v>0.31</v>
       </c>
-      <c r="R46" s="35" t="n">
+      <c r="R46" s="34" t="n">
         <v>25.6</v>
       </c>
-      <c r="S46" s="37" t="n">
+      <c r="S46" s="36" t="n">
         <v>13.3</v>
       </c>
-      <c r="T46" s="35" t="n">
+      <c r="T46" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="U46" s="35" t="n">
+      <c r="U46" s="34" t="n">
         <v>38</v>
       </c>
-      <c r="V46" s="35" t="n">
+      <c r="V46" s="34" t="n">
         <v>2.68</v>
       </c>
-      <c r="W46" s="35" t="n">
+      <c r="W46" s="34" t="n">
         <v>0.03</v>
       </c>
-      <c r="X46" s="35" t="n">
+      <c r="X46" s="34" t="n">
         <v>132.2</v>
       </c>
     </row>
-    <row r="47" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35" t="s">
+    <row r="47" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="35" t="n">
+      <c r="C47" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="37" t="n">
+      <c r="D47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="I47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" s="35" t="s">
+      <c r="I47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N47" s="35" t="n">
+      <c r="N47" s="34" t="n">
         <v>4.66</v>
       </c>
-      <c r="O47" s="35" t="n">
+      <c r="O47" s="34" t="n">
         <v>124</v>
       </c>
-      <c r="P47" s="35" t="n">
+      <c r="P47" s="34" t="n">
         <v>76.8</v>
       </c>
-      <c r="Q47" s="35" t="n">
+      <c r="Q47" s="34" t="n">
         <v>0.36</v>
       </c>
-      <c r="R47" s="35" t="n">
+      <c r="R47" s="34" t="n">
         <v>26.6</v>
       </c>
-      <c r="S47" s="37" t="n">
+      <c r="S47" s="36" t="n">
         <v>14.5</v>
       </c>
-      <c r="T47" s="35" t="n">
+      <c r="T47" s="34" t="n">
         <v>2.2</v>
       </c>
-      <c r="U47" s="35" t="n">
+      <c r="U47" s="34" t="n">
         <v>54.6</v>
       </c>
-      <c r="V47" s="35" t="n">
+      <c r="V47" s="34" t="n">
         <v>2.59</v>
       </c>
-      <c r="W47" s="35" t="n">
+      <c r="W47" s="34" t="n">
         <v>0.03</v>
       </c>
-      <c r="X47" s="35" t="n">
+      <c r="X47" s="34" t="n">
         <v>67.8</v>
       </c>
     </row>
-    <row r="48" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="35" t="s">
+    <row r="48" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="35" t="n">
+      <c r="C48" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="37" t="n">
+      <c r="D48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36" t="n">
         <v>40</v>
       </c>
-      <c r="I48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" s="35" t="s">
+      <c r="I48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N48" s="35" t="n">
+      <c r="N48" s="34" t="n">
         <v>4.34</v>
       </c>
-      <c r="O48" s="35" t="n">
+      <c r="O48" s="34" t="n">
         <v>113</v>
       </c>
-      <c r="P48" s="35" t="n">
+      <c r="P48" s="34" t="n">
         <v>74.9</v>
       </c>
-      <c r="Q48" s="35" t="n">
+      <c r="Q48" s="34" t="n">
         <v>0.32</v>
       </c>
-      <c r="R48" s="35" t="n">
+      <c r="R48" s="34" t="n">
         <v>26</v>
       </c>
-      <c r="S48" s="37" t="n">
+      <c r="S48" s="36" t="n">
         <v>13.5</v>
       </c>
-      <c r="T48" s="35" t="n">
+      <c r="T48" s="34" t="n">
         <v>3.8</v>
       </c>
-      <c r="U48" s="35" t="n">
+      <c r="U48" s="34" t="n">
         <v>26.3</v>
       </c>
-      <c r="V48" s="35" t="n">
+      <c r="V48" s="34" t="n">
         <v>3.08</v>
       </c>
-      <c r="W48" s="35" t="n">
+      <c r="W48" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X48" s="35" t="n">
+      <c r="X48" s="34" t="n">
         <v>71.1</v>
       </c>
     </row>
-    <row r="49" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="35" t="s">
+    <row r="49" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="58" t="n">
+      <c r="C49" s="57" t="n">
         <v>35</v>
       </c>
-      <c r="D49" s="35" t="s">
+      <c r="D49" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="E49" s="58" t="s">
+      <c r="E49" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="37" t="n">
+      <c r="F49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="36" t="n">
         <v>23</v>
       </c>
-      <c r="I49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" s="35" t="s">
+      <c r="I49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N49" s="35" t="n">
+      <c r="N49" s="34" t="n">
         <v>4.6</v>
       </c>
-      <c r="O49" s="35" t="n">
+      <c r="O49" s="34" t="n">
         <v>111</v>
       </c>
-      <c r="P49" s="35" t="n">
+      <c r="P49" s="34" t="n">
         <v>67.8</v>
       </c>
-      <c r="Q49" s="35" t="n">
+      <c r="Q49" s="34" t="n">
         <v>0.32</v>
       </c>
-      <c r="R49" s="35" t="n">
+      <c r="R49" s="34" t="n">
         <v>24.1</v>
       </c>
-      <c r="S49" s="37" t="n">
+      <c r="S49" s="36" t="n">
         <v>15</v>
       </c>
-      <c r="T49" s="35" t="n">
+      <c r="T49" s="34" t="n">
         <v>3.8</v>
       </c>
-      <c r="U49" s="35" t="n">
+      <c r="U49" s="34" t="n">
         <v>18.5</v>
       </c>
-      <c r="V49" s="35" t="n">
+      <c r="V49" s="34" t="n">
         <v>3.39</v>
       </c>
-      <c r="W49" s="35" t="n">
+      <c r="W49" s="34" t="n">
         <v>0.04</v>
       </c>
-      <c r="X49" s="35" t="n">
+      <c r="X49" s="34" t="n">
         <v>83.3</v>
       </c>
     </row>
-    <row r="50" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="35" t="s">
+    <row r="50" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="60" t="n">
+      <c r="C50" s="59" t="n">
         <v>40</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="F50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="66" t="n">
+      <c r="F50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="65" t="n">
         <v>64</v>
       </c>
-      <c r="I50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" s="60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" s="60" t="s">
+      <c r="I50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="59" t="s">
         <v>268</v>
       </c>
-      <c r="N50" s="60" t="n">
+      <c r="N50" s="59" t="n">
         <v>4.53</v>
       </c>
-      <c r="O50" s="60" t="n">
+      <c r="O50" s="59" t="n">
         <v>135</v>
       </c>
-      <c r="P50" s="60" t="n">
+      <c r="P50" s="59" t="n">
         <v>83</v>
       </c>
-      <c r="Q50" s="60" t="n">
+      <c r="Q50" s="59" t="n">
         <v>0.38</v>
       </c>
-      <c r="R50" s="60" t="n">
+      <c r="R50" s="59" t="n">
         <v>29.8</v>
       </c>
-      <c r="S50" s="66" t="n">
+      <c r="S50" s="65" t="n">
         <v>13.2</v>
       </c>
-      <c r="T50" s="60" t="n">
+      <c r="T50" s="59" t="n">
         <v>2.8</v>
       </c>
-      <c r="U50" s="60" t="n">
+      <c r="U50" s="59" t="n">
         <v>34.4</v>
       </c>
-      <c r="V50" s="60" t="n">
+      <c r="V50" s="59" t="n">
         <v>2.53</v>
       </c>
-      <c r="W50" s="60" t="n">
+      <c r="W50" s="59" t="n">
         <v>0.04</v>
       </c>
-      <c r="X50" s="60" t="n">
+      <c r="X50" s="59" t="n">
         <v>35.5</v>
       </c>
     </row>
-    <row r="51" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35" t="s">
+    <row r="51" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="58" t="n">
+      <c r="C51" s="57" t="n">
         <v>37</v>
       </c>
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="E51" s="58" t="s">
+      <c r="E51" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F51" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="37" t="n">
+      <c r="F51" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="36" t="n">
         <v>57</v>
       </c>
-      <c r="I51" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" s="35" t="s">
+      <c r="I51" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="N51" s="59" t="n">
+      <c r="N51" s="58" t="n">
         <v>4.4</v>
       </c>
-      <c r="O51" s="59" t="n">
+      <c r="O51" s="58" t="n">
         <v>123</v>
       </c>
-      <c r="P51" s="59" t="n">
+      <c r="P51" s="58" t="n">
         <v>80.5</v>
       </c>
-      <c r="Q51" s="59" t="n">
+      <c r="Q51" s="58" t="n">
         <v>0.35</v>
       </c>
-      <c r="R51" s="59" t="n">
+      <c r="R51" s="58" t="n">
         <v>28</v>
       </c>
-      <c r="S51" s="65" t="n">
+      <c r="S51" s="64" t="n">
         <v>12.7</v>
       </c>
-      <c r="T51" s="59" t="n">
+      <c r="T51" s="58" t="n">
         <v>3.8</v>
       </c>
-      <c r="U51" s="59" t="n">
+      <c r="U51" s="58" t="n">
         <v>50.8</v>
       </c>
-      <c r="V51" s="59" t="n">
+      <c r="V51" s="58" t="n">
         <v>2.53</v>
       </c>
-      <c r="W51" s="59" t="n">
+      <c r="W51" s="58" t="n">
         <v>0.06</v>
       </c>
-      <c r="X51" s="59" t="n">
+      <c r="X51" s="58" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="52" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="35" t="s">
+    <row r="52" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C52" s="35" t="n">
+      <c r="C52" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D52" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="37" t="n">
+      <c r="D52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="36" t="n">
         <v>48</v>
       </c>
-      <c r="I52" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" s="35" t="s">
+      <c r="I52" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N52" s="59" t="n">
+      <c r="N52" s="58" t="n">
         <v>4.76</v>
       </c>
-      <c r="O52" s="59" t="n">
+      <c r="O52" s="58" t="n">
         <v>128</v>
       </c>
-      <c r="P52" s="59" t="n">
+      <c r="P52" s="58" t="n">
         <v>76.9</v>
       </c>
-      <c r="Q52" s="59" t="n">
+      <c r="Q52" s="58" t="n">
         <v>0.37</v>
       </c>
-      <c r="R52" s="59" t="n">
+      <c r="R52" s="58" t="n">
         <v>26.9</v>
       </c>
-      <c r="S52" s="65" t="n">
+      <c r="S52" s="64" t="n">
         <v>13.9</v>
       </c>
-      <c r="T52" s="59" t="n">
+      <c r="T52" s="58" t="n">
         <v>3.5</v>
       </c>
-      <c r="U52" s="59" t="s">
+      <c r="U52" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="V52" s="59" t="n">
+      <c r="V52" s="58" t="n">
         <v>2.45</v>
       </c>
-      <c r="W52" s="59" t="n">
+      <c r="W52" s="58" t="n">
         <v>0.06</v>
       </c>
-      <c r="X52" s="59" t="n">
+      <c r="X52" s="58" t="n">
         <v>59.9</v>
       </c>
     </row>
-    <row r="53" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="35" t="s">
+    <row r="53" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="35" t="n">
+      <c r="C53" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D53" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="37" t="n">
+      <c r="D53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="I53" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" s="35" t="s">
+      <c r="I53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N53" s="35" t="n">
+      <c r="N53" s="34" t="n">
         <v>4.25</v>
       </c>
-      <c r="O53" s="35" t="n">
+      <c r="O53" s="34" t="n">
         <v>114</v>
       </c>
-      <c r="P53" s="35" t="n">
+      <c r="P53" s="34" t="n">
         <v>73.6</v>
       </c>
-      <c r="Q53" s="35" t="n">
+      <c r="Q53" s="34" t="n">
         <v>0.31</v>
       </c>
-      <c r="R53" s="35" t="n">
+      <c r="R53" s="34" t="n">
         <v>26.8</v>
       </c>
-      <c r="S53" s="37" t="n">
+      <c r="S53" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="T53" s="35" t="n">
+      <c r="T53" s="34" t="n">
         <v>2.8</v>
       </c>
-      <c r="U53" s="35" t="n">
+      <c r="U53" s="34" t="n">
         <v>41.6</v>
       </c>
-      <c r="V53" s="35" t="n">
+      <c r="V53" s="34" t="n">
         <v>2.28</v>
       </c>
-      <c r="W53" s="35" t="n">
+      <c r="W53" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X53" s="35" t="n">
+      <c r="X53" s="34" t="n">
         <v>149.8</v>
       </c>
     </row>
-    <row r="54" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="s">
+    <row r="54" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="35" t="n">
+      <c r="C54" s="34" t="n">
         <v>39</v>
       </c>
-      <c r="D54" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="37" t="n">
+      <c r="D54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="36" t="n">
         <v>12</v>
       </c>
-      <c r="I54" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K54" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" s="35" t="s">
+      <c r="I54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N54" s="35" t="n">
+      <c r="N54" s="34" t="n">
         <v>4.51</v>
       </c>
-      <c r="O54" s="35" t="n">
+      <c r="O54" s="34" t="n">
         <v>122</v>
       </c>
-      <c r="P54" s="35" t="n">
+      <c r="P54" s="34" t="n">
         <v>75.4</v>
       </c>
-      <c r="Q54" s="35" t="n">
+      <c r="Q54" s="34" t="n">
         <v>0.34</v>
       </c>
-      <c r="R54" s="35" t="n">
+      <c r="R54" s="34" t="n">
         <v>27.1</v>
       </c>
-      <c r="S54" s="37" t="n">
+      <c r="S54" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="T54" s="35" t="n">
+      <c r="T54" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="U54" s="35" t="n">
+      <c r="U54" s="34" t="n">
         <v>41.2</v>
       </c>
-      <c r="V54" s="35" t="n">
+      <c r="V54" s="34" t="n">
         <v>2.53</v>
       </c>
-      <c r="W54" s="35" t="n">
+      <c r="W54" s="34" t="n">
         <v>0.05</v>
       </c>
-      <c r="X54" s="35" t="n">
+      <c r="X54" s="34" t="n">
         <v>61.9</v>
       </c>
     </row>
-    <row r="55" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
+    <row r="55" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="58" t="n">
+      <c r="C55" s="57" t="n">
         <v>37</v>
       </c>
-      <c r="D55" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="58" t="s">
+      <c r="D55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="F55" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="37" t="n">
+      <c r="F55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="36" t="n">
         <v>14</v>
       </c>
-      <c r="I55" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="35" t="s">
+      <c r="I55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N55" s="35" t="n">
+      <c r="N55" s="34" t="n">
         <v>4.08</v>
       </c>
-      <c r="O55" s="35" t="n">
+      <c r="O55" s="34" t="n">
         <v>84</v>
       </c>
-      <c r="P55" s="35" t="n">
+      <c r="P55" s="34" t="n">
         <v>63.5</v>
       </c>
-      <c r="Q55" s="35" t="n">
+      <c r="Q55" s="34" t="n">
         <v>0.26</v>
       </c>
-      <c r="R55" s="35" t="n">
+      <c r="R55" s="34" t="n">
         <v>20.6</v>
       </c>
-      <c r="S55" s="37" t="n">
+      <c r="S55" s="36" t="n">
         <v>17.4</v>
       </c>
-      <c r="T55" s="35" t="n">
+      <c r="T55" s="34" t="n">
         <v>5.5</v>
       </c>
-      <c r="U55" s="35" t="n">
+      <c r="U55" s="34" t="n">
         <v>11.8</v>
       </c>
-      <c r="V55" s="35" t="n">
+      <c r="V55" s="34" t="n">
         <v>2.97</v>
       </c>
-      <c r="W55" s="35" t="n">
+      <c r="W55" s="34" t="n">
         <v>0.07</v>
       </c>
-      <c r="X55" s="35" t="n">
+      <c r="X55" s="34" t="n">
         <v>94.5</v>
       </c>
     </row>
-    <row r="56" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="s">
+    <row r="56" s="34" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="35" t="n">
+      <c r="C56" s="34" t="n">
         <v>40</v>
       </c>
-      <c r="D56" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="37" t="n">
+      <c r="D56" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="36" t="n">
         <v>32</v>
       </c>
-      <c r="I56" s="59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" s="35" t="s">
+      <c r="I56" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="N56" s="59" t="n">
+      <c r="N56" s="58" t="n">
         <v>4.59</v>
       </c>
-      <c r="O56" s="59" t="n">
+      <c r="O56" s="58" t="n">
         <v>118</v>
       </c>
-      <c r="P56" s="59" t="n">
+      <c r="P56" s="58" t="n">
         <v>73.2</v>
       </c>
-      <c r="Q56" s="59" t="n">
+      <c r="Q56" s="58" t="n">
         <v>0.34</v>
       </c>
-      <c r="R56" s="59" t="n">
+      <c r="R56" s="58" t="n">
         <v>25.7</v>
       </c>
-      <c r="S56" s="65" t="n">
+      <c r="S56" s="64" t="n">
         <v>13.9</v>
       </c>
-      <c r="T56" s="59" t="n">
+      <c r="T56" s="58" t="n">
         <v>5.1</v>
       </c>
-      <c r="U56" s="59" t="n">
+      <c r="U56" s="58" t="n">
         <v>20.9</v>
       </c>
-      <c r="V56" s="59" t="n">
+      <c r="V56" s="58" t="n">
         <v>2.57</v>
       </c>
-      <c r="W56" s="59" t="n">
+      <c r="W56" s="58" t="n">
         <v>0.08</v>
       </c>
-      <c r="X56" s="59" t="n">
+      <c r="X56" s="58" t="n">
         <v>43</v>
       </c>
     </row>
@@ -21928,7 +21976,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.57"/>
